--- a/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.3178575650166</v>
+        <v>24.31785756501661</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.914980260553495</v>
+        <v>9.914980260553479</v>
       </c>
       <c r="E2">
-        <v>16.98786173531139</v>
+        <v>16.98786173531141</v>
       </c>
       <c r="F2">
-        <v>85.79043419103365</v>
+        <v>85.79043419103341</v>
       </c>
       <c r="G2">
-        <v>68.38930257577186</v>
+        <v>68.38930257577171</v>
       </c>
       <c r="H2">
-        <v>69.43069910385773</v>
+        <v>69.43069910385762</v>
       </c>
       <c r="I2">
-        <v>17.25844333934571</v>
+        <v>17.25844333934572</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.68411345225613</v>
+        <v>22.68411345225607</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.998573966712611</v>
+        <v>8.998573966712605</v>
       </c>
       <c r="E3">
-        <v>15.36231434640439</v>
+        <v>15.3623143464043</v>
       </c>
       <c r="F3">
-        <v>77.72596804690414</v>
+        <v>77.72596804690399</v>
       </c>
       <c r="G3">
-        <v>61.93953134161602</v>
+        <v>61.93953134161588</v>
       </c>
       <c r="H3">
-        <v>64.78771038057242</v>
+        <v>64.78771038057236</v>
       </c>
       <c r="I3">
-        <v>15.63326403541255</v>
+        <v>15.63326403541245</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.62318182639413</v>
+        <v>21.62318182639428</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.451786487478119</v>
+        <v>8.451786487478099</v>
       </c>
       <c r="E4">
-        <v>14.39069594263558</v>
+        <v>14.39069594263564</v>
       </c>
       <c r="F4">
-        <v>72.89459837454088</v>
+        <v>72.89459837454069</v>
       </c>
       <c r="G4">
-        <v>58.07348459852286</v>
+        <v>58.07348459852268</v>
       </c>
       <c r="H4">
-        <v>61.77023254095712</v>
+        <v>61.77023254095735</v>
       </c>
       <c r="I4">
         <v>14.66198041213996</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.17618423455046</v>
+        <v>21.17618423455045</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.2303823330162</v>
+        <v>8.230382333016237</v>
       </c>
       <c r="E5">
-        <v>13.99690960227006</v>
+        <v>13.99690960227003</v>
       </c>
       <c r="F5">
-        <v>70.93521318107196</v>
+        <v>70.93521318107177</v>
       </c>
       <c r="G5">
-        <v>56.50497481618662</v>
+        <v>56.5049748161865</v>
       </c>
       <c r="H5">
-        <v>60.49838825984558</v>
+        <v>60.4983882598457</v>
       </c>
       <c r="I5">
         <v>14.26834435622349</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10107177556952</v>
+        <v>21.10107177556945</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.193647276246935</v>
+        <v>8.193647276246994</v>
       </c>
       <c r="E6">
-        <v>13.93155287007724</v>
+        <v>13.93155287007726</v>
       </c>
       <c r="F6">
-        <v>70.60997305707066</v>
+        <v>70.60997305707099</v>
       </c>
       <c r="G6">
-        <v>56.24457640245427</v>
+        <v>56.24457640245458</v>
       </c>
       <c r="H6">
-        <v>60.28464309964248</v>
+        <v>60.28464309964229</v>
       </c>
       <c r="I6">
-        <v>14.20301313492766</v>
+        <v>14.20301313492772</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.61721297382804</v>
+        <v>21.61721297382805</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.44879748142737</v>
+        <v>8.448797481427372</v>
       </c>
       <c r="E7">
-        <v>14.38538112800533</v>
+        <v>14.38538112800531</v>
       </c>
       <c r="F7">
-        <v>72.86815664971465</v>
+        <v>72.86815664971455</v>
       </c>
       <c r="G7">
-        <v>58.05232032679427</v>
+        <v>58.05232032679417</v>
       </c>
       <c r="H7">
-        <v>61.75325121813998</v>
+        <v>61.75325121813992</v>
       </c>
       <c r="I7">
-        <v>14.65666758146098</v>
+        <v>14.65666758146099</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.76646345961809</v>
+        <v>23.76646345961812</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.593748878555775</v>
+        <v>9.593748878555687</v>
       </c>
       <c r="E8">
-        <v>16.41846935012006</v>
+        <v>16.41846935012003</v>
       </c>
       <c r="F8">
-        <v>82.96906927576839</v>
+        <v>82.96906927576792</v>
       </c>
       <c r="G8">
-        <v>66.13319969876559</v>
+        <v>66.13319969876524</v>
       </c>
       <c r="H8">
-        <v>67.8642033964708</v>
+        <v>67.86420339647066</v>
       </c>
       <c r="I8">
-        <v>16.68914466146355</v>
+        <v>16.68914466146349</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E9">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F9">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G9">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H9">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I9">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E10">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F10">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G10">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H10">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I10">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E11">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F11">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G11">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H11">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I11">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E12">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F12">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G12">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H12">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I12">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E13">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F13">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G13">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H13">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I13">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E14">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F14">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G14">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H14">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I14">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E15">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F15">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G15">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H15">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I15">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E16">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F16">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G16">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H16">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I16">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E17">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F17">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G17">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H17">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I17">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E18">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F18">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G18">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H18">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I18">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E19">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F19">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G19">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H19">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I19">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E20">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F20">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G20">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H20">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I20">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E21">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F21">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G21">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H21">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I21">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E22">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F22">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G22">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H22">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I22">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E23">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F23">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G23">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H23">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I23">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E24">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F24">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G24">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H24">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I24">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.52843021193158</v>
+        <v>27.52843021193163</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>12.21392512343215</v>
+        <v>12.213925123432</v>
       </c>
       <c r="E25">
-        <v>21.04793521237841</v>
+        <v>21.04793521237834</v>
       </c>
       <c r="F25">
-        <v>105.7309705110384</v>
+        <v>105.7309705110378</v>
       </c>
       <c r="G25">
-        <v>84.33246889151864</v>
+        <v>84.33246889151823</v>
       </c>
       <c r="H25">
-        <v>78.54004445614564</v>
+        <v>78.54004445614574</v>
       </c>
       <c r="I25">
-        <v>21.31975381849984</v>
+        <v>21.31975381849978</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
@@ -412,28 +412,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.31785756501661</v>
+        <v>24.3178575650166</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.914980260553479</v>
+        <v>9.914980260553495</v>
       </c>
       <c r="E2">
-        <v>16.98786173531141</v>
+        <v>16.98786173531139</v>
       </c>
       <c r="F2">
-        <v>85.79043419103341</v>
+        <v>85.79043419103365</v>
       </c>
       <c r="G2">
-        <v>68.38930257577171</v>
+        <v>68.38930257577186</v>
       </c>
       <c r="H2">
-        <v>69.43069910385762</v>
+        <v>69.43069910385773</v>
       </c>
       <c r="I2">
-        <v>17.25844333934572</v>
+        <v>17.25844333934571</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.68411345225607</v>
+        <v>22.68411345225613</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.998573966712605</v>
+        <v>8.998573966712611</v>
       </c>
       <c r="E3">
-        <v>15.3623143464043</v>
+        <v>15.36231434640439</v>
       </c>
       <c r="F3">
-        <v>77.72596804690399</v>
+        <v>77.72596804690414</v>
       </c>
       <c r="G3">
-        <v>61.93953134161588</v>
+        <v>61.93953134161602</v>
       </c>
       <c r="H3">
-        <v>64.78771038057236</v>
+        <v>64.78771038057242</v>
       </c>
       <c r="I3">
-        <v>15.63326403541245</v>
+        <v>15.63326403541255</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.62318182639428</v>
+        <v>21.62318182639413</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.451786487478099</v>
+        <v>8.451786487478119</v>
       </c>
       <c r="E4">
-        <v>14.39069594263564</v>
+        <v>14.39069594263558</v>
       </c>
       <c r="F4">
-        <v>72.89459837454069</v>
+        <v>72.89459837454088</v>
       </c>
       <c r="G4">
-        <v>58.07348459852268</v>
+        <v>58.07348459852286</v>
       </c>
       <c r="H4">
-        <v>61.77023254095735</v>
+        <v>61.77023254095712</v>
       </c>
       <c r="I4">
         <v>14.66198041213996</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.17618423455045</v>
+        <v>21.17618423455046</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.230382333016237</v>
+        <v>8.2303823330162</v>
       </c>
       <c r="E5">
-        <v>13.99690960227003</v>
+        <v>13.99690960227006</v>
       </c>
       <c r="F5">
-        <v>70.93521318107177</v>
+        <v>70.93521318107196</v>
       </c>
       <c r="G5">
-        <v>56.5049748161865</v>
+        <v>56.50497481618662</v>
       </c>
       <c r="H5">
-        <v>60.4983882598457</v>
+        <v>60.49838825984558</v>
       </c>
       <c r="I5">
         <v>14.26834435622349</v>
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10107177556945</v>
+        <v>21.10107177556952</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.193647276246994</v>
+        <v>8.193647276246935</v>
       </c>
       <c r="E6">
-        <v>13.93155287007726</v>
+        <v>13.93155287007724</v>
       </c>
       <c r="F6">
-        <v>70.60997305707099</v>
+        <v>70.60997305707066</v>
       </c>
       <c r="G6">
-        <v>56.24457640245458</v>
+        <v>56.24457640245427</v>
       </c>
       <c r="H6">
-        <v>60.28464309964229</v>
+        <v>60.28464309964248</v>
       </c>
       <c r="I6">
-        <v>14.20301313492772</v>
+        <v>14.20301313492766</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,28 +602,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.61721297382805</v>
+        <v>21.61721297382804</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.448797481427372</v>
+        <v>8.44879748142737</v>
       </c>
       <c r="E7">
-        <v>14.38538112800531</v>
+        <v>14.38538112800533</v>
       </c>
       <c r="F7">
-        <v>72.86815664971455</v>
+        <v>72.86815664971465</v>
       </c>
       <c r="G7">
-        <v>58.05232032679417</v>
+        <v>58.05232032679427</v>
       </c>
       <c r="H7">
-        <v>61.75325121813992</v>
+        <v>61.75325121813998</v>
       </c>
       <c r="I7">
-        <v>14.65666758146099</v>
+        <v>14.65666758146098</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.76646345961812</v>
+        <v>23.76646345961809</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.593748878555687</v>
+        <v>9.593748878555775</v>
       </c>
       <c r="E8">
-        <v>16.41846935012003</v>
+        <v>16.41846935012006</v>
       </c>
       <c r="F8">
-        <v>82.96906927576792</v>
+        <v>82.96906927576839</v>
       </c>
       <c r="G8">
-        <v>66.13319969876524</v>
+        <v>66.13319969876559</v>
       </c>
       <c r="H8">
-        <v>67.86420339647066</v>
+        <v>67.8642033964708</v>
       </c>
       <c r="I8">
-        <v>16.68914466146349</v>
+        <v>16.68914466146355</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -678,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E9">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F9">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G9">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H9">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I9">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E10">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F10">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G10">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H10">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I10">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E11">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F11">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G11">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H11">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I11">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E12">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F12">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G12">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H12">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I12">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E13">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F13">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G13">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H13">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I13">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -868,28 +868,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E14">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F14">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G14">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H14">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I14">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E15">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F15">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G15">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H15">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I15">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E16">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F16">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G16">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H16">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I16">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E17">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F17">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G17">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H17">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I17">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E18">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F18">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G18">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H18">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I18">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E19">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F19">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G19">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H19">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I19">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E20">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F20">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G20">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H20">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I20">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E21">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F21">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G21">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H21">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I21">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,28 +1172,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E22">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F22">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G22">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H22">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I22">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E23">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F23">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G23">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H23">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I23">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E24">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F24">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G24">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H24">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I24">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.52843021193163</v>
+        <v>27.52843021193158</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>12.213925123432</v>
+        <v>12.21392512343215</v>
       </c>
       <c r="E25">
-        <v>21.04793521237834</v>
+        <v>21.04793521237841</v>
       </c>
       <c r="F25">
-        <v>105.7309705110378</v>
+        <v>105.7309705110384</v>
       </c>
       <c r="G25">
-        <v>84.33246889151823</v>
+        <v>84.33246889151864</v>
       </c>
       <c r="H25">
-        <v>78.54004445614574</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="I25">
-        <v>21.31975381849978</v>
+        <v>21.31975381849984</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.914980260553495</v>
+        <v>9.888739591313591</v>
       </c>
       <c r="E2">
-        <v>16.98786173531139</v>
+        <v>16.98530097416661</v>
       </c>
       <c r="F2">
-        <v>85.79043419103365</v>
+        <v>85.66059341551309</v>
       </c>
       <c r="G2">
-        <v>68.38930257577186</v>
+        <v>68.44708190800645</v>
       </c>
       <c r="H2">
+        <v>68.02112647470631</v>
+      </c>
+      <c r="I2">
         <v>69.43069910385773</v>
       </c>
-      <c r="I2">
-        <v>17.25844333934571</v>
-      </c>
       <c r="J2">
-        <v>0</v>
+        <v>17.24468489637208</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,25 +462,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.998573966712611</v>
+        <v>8.97592136962129</v>
       </c>
       <c r="E3">
-        <v>15.36231434640439</v>
+        <v>15.36184531928862</v>
       </c>
       <c r="F3">
-        <v>77.72596804690414</v>
+        <v>77.61739586316979</v>
       </c>
       <c r="G3">
-        <v>61.93953134161602</v>
+        <v>61.9991291855532</v>
       </c>
       <c r="H3">
+        <v>61.62712689841398</v>
+      </c>
+      <c r="I3">
         <v>64.78771038057242</v>
       </c>
-      <c r="I3">
-        <v>15.63326403541255</v>
-      </c>
       <c r="J3">
-        <v>0</v>
+        <v>15.62266042918274</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -494,25 +503,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.451786487478119</v>
+        <v>8.431055955415056</v>
       </c>
       <c r="E4">
-        <v>14.39069594263558</v>
+        <v>14.3910785486603</v>
       </c>
       <c r="F4">
-        <v>72.89459837454088</v>
+        <v>72.79685165115366</v>
       </c>
       <c r="G4">
-        <v>58.07348459852286</v>
+        <v>58.13263659172348</v>
       </c>
       <c r="H4">
+        <v>57.79702231659742</v>
+      </c>
+      <c r="I4">
         <v>61.77023254095712</v>
       </c>
-      <c r="I4">
-        <v>14.66198041213996</v>
-      </c>
       <c r="J4">
-        <v>0</v>
+        <v>14.65286391572025</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -532,25 +544,25 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.2303823330162</v>
+        <v>8.210394732880705</v>
       </c>
       <c r="E5">
-        <v>13.99690960227006</v>
+        <v>13.99757182248236</v>
       </c>
       <c r="F5">
-        <v>70.93521318107196</v>
+        <v>70.84154020411847</v>
       </c>
       <c r="G5">
-        <v>56.50497481618662</v>
+        <v>56.56369262694641</v>
       </c>
       <c r="H5">
+        <v>56.24387564681782</v>
+      </c>
+      <c r="I5">
         <v>60.49838825984558</v>
       </c>
-      <c r="I5">
-        <v>14.26834435622349</v>
-      </c>
       <c r="J5">
-        <v>0</v>
+        <v>14.25976509867149</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -570,25 +585,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.193647276246935</v>
+        <v>8.173781204350346</v>
       </c>
       <c r="E6">
-        <v>13.93155287007724</v>
+        <v>13.93225823920999</v>
       </c>
       <c r="F6">
-        <v>70.60997305707066</v>
+        <v>70.51696050921468</v>
       </c>
       <c r="G6">
-        <v>56.24457640245427</v>
+        <v>56.30320952327396</v>
       </c>
       <c r="H6">
+        <v>55.98607845400957</v>
+      </c>
+      <c r="I6">
         <v>60.28464309964248</v>
       </c>
-      <c r="I6">
-        <v>14.20301313492766</v>
-      </c>
       <c r="J6">
-        <v>0</v>
+        <v>14.19451978963667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -608,25 +626,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.44879748142737</v>
+        <v>8.428077103496797</v>
       </c>
       <c r="E7">
-        <v>14.38538112800533</v>
+        <v>14.38576774015652</v>
       </c>
       <c r="F7">
-        <v>72.86815664971465</v>
+        <v>72.77046602467064</v>
       </c>
       <c r="G7">
-        <v>58.05232032679427</v>
+        <v>58.11146735991419</v>
       </c>
       <c r="H7">
+        <v>57.77606201691982</v>
+      </c>
+      <c r="I7">
         <v>61.75325121813998</v>
       </c>
-      <c r="I7">
-        <v>14.65666758146098</v>
-      </c>
       <c r="J7">
-        <v>0</v>
+        <v>14.6475585679127</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -646,25 +667,25 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.593748878555775</v>
+        <v>9.568828559998307</v>
       </c>
       <c r="E8">
-        <v>16.41846935012006</v>
+        <v>16.41675425293188</v>
       </c>
       <c r="F8">
-        <v>82.96906927576839</v>
+        <v>82.84721013175891</v>
       </c>
       <c r="G8">
-        <v>66.13319969876559</v>
+        <v>66.1920487210561</v>
       </c>
       <c r="H8">
+        <v>65.78411378146185</v>
+      </c>
+      <c r="I8">
         <v>67.8642033964708</v>
       </c>
-      <c r="I8">
-        <v>16.68914466146355</v>
-      </c>
       <c r="J8">
-        <v>0</v>
+        <v>16.67660431387786</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -684,25 +708,25 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E9">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F9">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G9">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H9">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I9">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -722,25 +749,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E10">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F10">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G10">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H10">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I10">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -760,25 +790,25 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E11">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F11">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G11">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H11">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I11">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -798,25 +831,25 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E12">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F12">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G12">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H12">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I12">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -836,25 +872,25 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E13">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F13">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G13">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H13">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I13">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -874,25 +913,25 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E14">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F14">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G14">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H14">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I14">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -912,25 +954,25 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E15">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F15">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G15">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H15">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I15">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -950,25 +995,25 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E16">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F16">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G16">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H16">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I16">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -988,25 +1036,25 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E17">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F17">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G17">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H17">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I17">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1026,25 +1077,25 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E18">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F18">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G18">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H18">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I18">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1064,25 +1118,25 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E19">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F19">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G19">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H19">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I19">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1102,25 +1159,25 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E20">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F20">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G20">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H20">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I20">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1140,25 +1200,25 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E21">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F21">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G21">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H21">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I21">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1178,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E22">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F22">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G22">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H22">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I22">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1216,25 +1282,25 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E23">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F23">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G23">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H23">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I23">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1254,25 +1323,25 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E24">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F24">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G24">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H24">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I24">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1292,30 +1364,33 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>12.21392512343215</v>
+        <v>12.17440762381247</v>
       </c>
       <c r="E25">
-        <v>21.04793521237841</v>
+        <v>21.0325714924961</v>
       </c>
       <c r="F25">
-        <v>105.7309705110384</v>
+        <v>105.5128494872218</v>
       </c>
       <c r="G25">
-        <v>84.33246889151864</v>
+        <v>84.35709995178512</v>
       </c>
       <c r="H25">
-        <v>78.54004445614564</v>
+        <v>83.82366310637433</v>
       </c>
       <c r="I25">
-        <v>21.31975381849984</v>
+        <v>78.54004445614564</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>21.29052355439454</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.3178575650166</v>
+        <v>17.95588661419251</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.888739591313591</v>
+        <v>9.830535583021343</v>
       </c>
       <c r="E2">
-        <v>16.98530097416661</v>
+        <v>11.18514122172052</v>
       </c>
       <c r="F2">
-        <v>85.66059341551309</v>
+        <v>65.71454176299694</v>
       </c>
       <c r="G2">
-        <v>68.44708190800645</v>
+        <v>2.10673918296182</v>
       </c>
       <c r="H2">
-        <v>68.02112647470631</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>69.43069910385773</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>17.24468489637208</v>
+        <v>7.405799150852742</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>26.66253478113211</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.85625889930438</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.68411345225613</v>
+        <v>17.07033642500698</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.97592136962129</v>
+        <v>9.07787997652321</v>
       </c>
       <c r="E3">
-        <v>15.36184531928862</v>
+        <v>10.53757491707104</v>
       </c>
       <c r="F3">
-        <v>77.61739586316979</v>
+        <v>62.53377208926877</v>
       </c>
       <c r="G3">
-        <v>61.9991291855532</v>
+        <v>2.125754624777368</v>
       </c>
       <c r="H3">
-        <v>61.62712689841398</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>64.78771038057242</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>15.62266042918274</v>
+        <v>7.266431999581297</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>24.64772333988215</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.31326541244291</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.62318182639413</v>
+        <v>16.52575813567536</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.431055955415056</v>
+        <v>8.598605039408769</v>
       </c>
       <c r="E4">
-        <v>14.3910785486603</v>
+        <v>10.13065023702993</v>
       </c>
       <c r="F4">
-        <v>72.79685165115366</v>
+        <v>60.57918609667542</v>
       </c>
       <c r="G4">
-        <v>58.13263659172348</v>
+        <v>2.137543798975918</v>
       </c>
       <c r="H4">
-        <v>57.79702231659742</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>61.77023254095712</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>14.65286391572025</v>
+        <v>7.181255944591887</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>23.36480044579325</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>9.982831461634092</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.17618423455046</v>
+        <v>16.30376983337572</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.210394732880705</v>
+        <v>8.398748598236324</v>
       </c>
       <c r="E5">
-        <v>13.99757182248236</v>
+        <v>9.962314565992259</v>
       </c>
       <c r="F5">
-        <v>70.84154020411847</v>
+        <v>59.78223675610013</v>
       </c>
       <c r="G5">
-        <v>56.56369262694641</v>
+        <v>2.14238613627814</v>
       </c>
       <c r="H5">
-        <v>56.24387564681782</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>60.49838825984558</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>14.25976509867149</v>
+        <v>7.146558487491866</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>22.83736109326158</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9.848964395715637</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.10107177556952</v>
+        <v>16.26691025624987</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.173781204350346</v>
+        <v>8.365281477577986</v>
       </c>
       <c r="E6">
-        <v>13.93225823920999</v>
+        <v>9.934206877602199</v>
       </c>
       <c r="F6">
-        <v>70.51696050921468</v>
+        <v>59.64988045223918</v>
       </c>
       <c r="G6">
-        <v>56.30320952327396</v>
+        <v>2.143192764727229</v>
       </c>
       <c r="H6">
-        <v>55.98607845400957</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>60.28464309964248</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>14.19451978963667</v>
+        <v>7.140795447271825</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>22.76132036780454</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9.826785537030482</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.61721297382804</v>
+        <v>16.52276435916848</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.428077103496797</v>
+        <v>8.595928414275184</v>
       </c>
       <c r="E7">
-        <v>14.38576774015652</v>
+        <v>10.12839035754072</v>
       </c>
       <c r="F7">
-        <v>72.77046602467064</v>
+        <v>60.56843983012662</v>
       </c>
       <c r="G7">
-        <v>58.11146735991419</v>
+        <v>2.137608938150032</v>
       </c>
       <c r="H7">
-        <v>57.77606201691982</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>61.75325121813998</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>14.6475585679127</v>
+        <v>7.180788057933012</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>23.35763733773782</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>9.981022806136414</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.76646345961809</v>
+        <v>17.65078930184934</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.568828559998307</v>
+        <v>9.574425118263621</v>
       </c>
       <c r="E8">
-        <v>16.41675425293188</v>
+        <v>10.9636780870049</v>
       </c>
       <c r="F8">
-        <v>82.84721013175891</v>
+        <v>64.61803942632044</v>
       </c>
       <c r="G8">
-        <v>66.1920487210561</v>
+        <v>2.113278296882953</v>
       </c>
       <c r="H8">
-        <v>65.78411378146185</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>67.8642033964708</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>16.67660431387786</v>
+        <v>7.357606487713324</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>25.97703751487076</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.66842840878212</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.52843021193158</v>
+        <v>19.85389606649354</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>12.17440762381247</v>
+        <v>11.36980048613476</v>
       </c>
       <c r="E9">
-        <v>21.0325714924961</v>
+        <v>12.53812470733613</v>
       </c>
       <c r="F9">
-        <v>105.5128494872218</v>
+        <v>72.56326919440342</v>
       </c>
       <c r="G9">
-        <v>84.35709995178512</v>
+        <v>2.065956927836814</v>
       </c>
       <c r="H9">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>21.29052355439454</v>
+        <v>7.712256684323206</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>30.77613346863817</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.54232668062535</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.52843021193158</v>
+        <v>21.47126121534365</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.17440762381247</v>
+        <v>12.63485013554594</v>
       </c>
       <c r="E10">
-        <v>21.0325714924961</v>
+        <v>13.67576680685167</v>
       </c>
       <c r="F10">
-        <v>105.5128494872218</v>
+        <v>78.45237108058227</v>
       </c>
       <c r="G10">
-        <v>84.35709995178512</v>
+        <v>2.030557559090202</v>
       </c>
       <c r="H10">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>21.29052355439454</v>
+        <v>7.986014126160812</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>34.14319577634457</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.92257789322414</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.52843021193158</v>
+        <v>22.26058380374624</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.17440762381247</v>
+        <v>13.20483760630156</v>
       </c>
       <c r="E11">
-        <v>21.0325714924961</v>
+        <v>14.19545541402037</v>
       </c>
       <c r="F11">
-        <v>105.5128494872218</v>
+        <v>81.16289749600755</v>
       </c>
       <c r="G11">
-        <v>84.35709995178512</v>
+        <v>2.014059793054144</v>
       </c>
       <c r="H11">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>21.29052355439454</v>
+        <v>8.115970102450392</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>35.6548271761715</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.54185132342718</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.52843021193158</v>
+        <v>22.58684009792617</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.17440762381247</v>
+        <v>13.42056640270695</v>
       </c>
       <c r="E12">
-        <v>21.0325714924961</v>
+        <v>14.39328038264262</v>
       </c>
       <c r="F12">
-        <v>105.5128494872218</v>
+        <v>82.19637573670829</v>
       </c>
       <c r="G12">
-        <v>84.35709995178512</v>
+        <v>2.007727684910358</v>
       </c>
       <c r="H12">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>21.29052355439454</v>
+        <v>8.166247725638032</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>36.22595380388415</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.77579447037877</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.52843021193158</v>
+        <v>22.51660615482004</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.17440762381247</v>
+        <v>13.37409772477148</v>
       </c>
       <c r="E13">
-        <v>21.0325714924961</v>
+        <v>14.35061574789623</v>
       </c>
       <c r="F13">
-        <v>105.5128494872218</v>
+        <v>81.97343411885907</v>
       </c>
       <c r="G13">
-        <v>84.35709995178512</v>
+        <v>2.009095712399812</v>
       </c>
       <c r="H13">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>21.29052355439454</v>
+        <v>8.155366700061332</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>36.10297919121195</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.72542300024158</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.52843021193158</v>
+        <v>22.28744035635513</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.17440762381247</v>
+        <v>13.22258351792931</v>
       </c>
       <c r="E14">
-        <v>21.0325714924961</v>
+        <v>14.2117050980965</v>
       </c>
       <c r="F14">
-        <v>105.5128494872218</v>
+        <v>81.24776332082641</v>
       </c>
       <c r="G14">
-        <v>84.35709995178512</v>
+        <v>2.013540731863002</v>
       </c>
       <c r="H14">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>21.29052355439454</v>
+        <v>8.120083181819281</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>35.70182945858068</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.5611047484179</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.52843021193158</v>
+        <v>22.14696445993964</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.17440762381247</v>
+        <v>13.12978495968956</v>
       </c>
       <c r="E15">
-        <v>21.0325714924961</v>
+        <v>14.12677726277885</v>
       </c>
       <c r="F15">
-        <v>105.5128494872218</v>
+        <v>80.80427804348714</v>
       </c>
       <c r="G15">
-        <v>84.35709995178512</v>
+        <v>2.016251442050313</v>
       </c>
       <c r="H15">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>21.29052355439454</v>
+        <v>8.098619688851594</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>35.45599925976919</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>14.46040481976911</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.52843021193158</v>
+        <v>21.42307473681821</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.17440762381247</v>
+        <v>12.59754373158745</v>
       </c>
       <c r="E16">
-        <v>21.0325714924961</v>
+        <v>13.64190454526839</v>
       </c>
       <c r="F16">
-        <v>105.5128494872218</v>
+        <v>78.27606364086297</v>
       </c>
       <c r="G16">
-        <v>84.35709995178512</v>
+        <v>2.03162554812147</v>
       </c>
       <c r="H16">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>21.29052355439454</v>
+        <v>7.977653080021605</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>34.04413019252398</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.88198772267907</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.52843021193158</v>
+        <v>21.00116790168549</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>12.17440762381247</v>
+        <v>12.27005630836992</v>
       </c>
       <c r="E17">
-        <v>21.0325714924961</v>
+        <v>13.34545812808389</v>
       </c>
       <c r="F17">
-        <v>105.5128494872218</v>
+        <v>76.73470998691528</v>
       </c>
       <c r="G17">
-        <v>84.35709995178512</v>
+        <v>2.040938165841355</v>
       </c>
       <c r="H17">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>21.29052355439454</v>
+        <v>7.905013705377274</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>33.17386515244979</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.52537358570687</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.52843021193158</v>
+        <v>20.75875140568998</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>12.17440762381247</v>
+        <v>12.08112874030417</v>
       </c>
       <c r="E18">
-        <v>21.0325714924961</v>
+        <v>13.17510130169893</v>
       </c>
       <c r="F18">
-        <v>105.5128494872218</v>
+        <v>75.85093926779008</v>
       </c>
       <c r="G18">
-        <v>84.35709995178512</v>
+        <v>2.046259435960049</v>
       </c>
       <c r="H18">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>21.29052355439454</v>
+        <v>7.863722919637096</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>32.67130792392921</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.31939948140536</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.52843021193158</v>
+        <v>20.67670523957666</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>12.17440762381247</v>
+        <v>12.01704598145009</v>
       </c>
       <c r="E19">
-        <v>21.0325714924961</v>
+        <v>13.11742860705987</v>
       </c>
       <c r="F19">
-        <v>105.5128494872218</v>
+        <v>75.55212249552116</v>
       </c>
       <c r="G19">
-        <v>84.35709995178512</v>
+        <v>2.048055844215988</v>
       </c>
       <c r="H19">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>21.29052355439454</v>
+        <v>7.849819099429296</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>32.50076443696208</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.24949463791579</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.52843021193158</v>
+        <v>21.04605153218953</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>12.17440762381247</v>
+        <v>12.3049720493063</v>
       </c>
       <c r="E20">
-        <v>21.0325714924961</v>
+        <v>13.37699511356286</v>
       </c>
       <c r="F20">
-        <v>105.5128494872218</v>
+        <v>76.89848683042393</v>
       </c>
       <c r="G20">
-        <v>84.35709995178512</v>
+        <v>2.039950636056105</v>
       </c>
       <c r="H20">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>21.29052355439454</v>
+        <v>7.912693798267916</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>33.26670349474826</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.56342030590465</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.52843021193158</v>
+        <v>22.35477239276187</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.17440762381247</v>
+        <v>13.26708372943496</v>
       </c>
       <c r="E21">
-        <v>21.0325714924961</v>
+        <v>14.25247181563102</v>
       </c>
       <c r="F21">
-        <v>105.5128494872218</v>
+        <v>81.46069437831423</v>
       </c>
       <c r="G21">
-        <v>84.35709995178512</v>
+        <v>2.012237681744135</v>
       </c>
       <c r="H21">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>21.29052355439454</v>
+        <v>8.130415193911629</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>35.81967724781674</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.60937801667933</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.52843021193158</v>
+        <v>23.3034352015869</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.17440762381247</v>
+        <v>13.89567161371876</v>
       </c>
       <c r="E22">
-        <v>21.0325714924961</v>
+        <v>14.8311473887847</v>
       </c>
       <c r="F22">
-        <v>105.5128494872218</v>
+        <v>84.48536434960533</v>
       </c>
       <c r="G22">
-        <v>84.35709995178512</v>
+        <v>1.993612871004968</v>
       </c>
       <c r="H22">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>21.29052355439454</v>
+        <v>8.279118976245673</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>37.48171396479854</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.29014498796405</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.52843021193158</v>
+        <v>22.79732856775459</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.17440762381247</v>
+        <v>13.55992954537591</v>
       </c>
       <c r="E23">
-        <v>21.0325714924961</v>
+        <v>14.52140777795253</v>
       </c>
       <c r="F23">
-        <v>105.5128494872218</v>
+        <v>82.86603281789247</v>
       </c>
       <c r="G23">
-        <v>84.35709995178512</v>
+        <v>2.003611483713417</v>
       </c>
       <c r="H23">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>21.29052355439454</v>
+        <v>8.199049561057416</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>36.59460379431269</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.92679403764664</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.52843021193158</v>
+        <v>21.02575922980852</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.17440762381247</v>
+        <v>12.28918871821306</v>
       </c>
       <c r="E24">
-        <v>21.0325714924961</v>
+        <v>13.36273706275447</v>
       </c>
       <c r="F24">
-        <v>105.5128494872218</v>
+        <v>76.82443610350887</v>
       </c>
       <c r="G24">
-        <v>84.35709995178512</v>
+        <v>2.040397198039846</v>
       </c>
       <c r="H24">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>21.29052355439454</v>
+        <v>7.909220183090667</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>33.22473834111245</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.54622239723461</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.52843021193158</v>
+        <v>19.25880838866021</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>12.17440762381247</v>
+        <v>10.89536653389414</v>
       </c>
       <c r="E25">
-        <v>21.0325714924961</v>
+        <v>12.11728153098473</v>
       </c>
       <c r="F25">
-        <v>105.5128494872218</v>
+        <v>70.40982910285133</v>
       </c>
       <c r="G25">
-        <v>84.35709995178512</v>
+        <v>2.07879653044181</v>
       </c>
       <c r="H25">
-        <v>83.82366310637433</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>78.54004445614564</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>21.29052355439454</v>
+        <v>7.614712225088639</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>29.50978282353681</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.02270529847076</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.95588661419251</v>
+        <v>22.46523510131227</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.830535583021343</v>
+        <v>14.21310211139688</v>
       </c>
       <c r="E2">
-        <v>11.18514122172052</v>
+        <v>20.55169765077915</v>
       </c>
       <c r="F2">
-        <v>65.71454176299694</v>
+        <v>53.99595251471938</v>
       </c>
       <c r="G2">
-        <v>2.10673918296182</v>
+        <v>2.064575281938424</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.405799150852742</v>
+        <v>10.53937387893728</v>
       </c>
       <c r="K2">
-        <v>26.66253478113211</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>10.85625889930438</v>
+        <v>15.39632008561491</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>19.32161758623028</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>14.19665437938369</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.07033642500698</v>
+        <v>21.22396889410232</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.07787997652321</v>
+        <v>13.09358688503187</v>
       </c>
       <c r="E3">
-        <v>10.53757491707104</v>
+        <v>19.02784400483668</v>
       </c>
       <c r="F3">
-        <v>62.53377208926877</v>
+        <v>51.48819458924648</v>
       </c>
       <c r="G3">
-        <v>2.125754624777368</v>
+        <v>2.086829290582118</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.266431999581297</v>
+        <v>9.943244101407856</v>
       </c>
       <c r="K3">
-        <v>24.64772333988215</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>10.31326541244291</v>
+        <v>14.5023113307044</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>18.36876246030292</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>14.56540857551389</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.52575813567536</v>
+        <v>20.45254612486386</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.598605039408769</v>
+        <v>12.38416732476577</v>
       </c>
       <c r="E4">
-        <v>10.13065023702993</v>
+        <v>18.05995156221686</v>
       </c>
       <c r="F4">
-        <v>60.57918609667542</v>
+        <v>49.98661468600265</v>
       </c>
       <c r="G4">
-        <v>2.137543798975918</v>
+        <v>2.100564046441888</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.181255944591887</v>
+        <v>9.568661563647508</v>
       </c>
       <c r="K4">
-        <v>23.36480044579325</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>9.982831461634092</v>
+        <v>13.94803307799937</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>17.78333488820203</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>14.79229199011484</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.30376983337572</v>
+        <v>20.1359278648891</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.398748598236324</v>
+        <v>12.08907634846179</v>
       </c>
       <c r="E5">
-        <v>9.962314565992259</v>
+        <v>17.65684992612656</v>
       </c>
       <c r="F5">
-        <v>59.78223675610013</v>
+        <v>49.3838637292407</v>
       </c>
       <c r="G5">
-        <v>2.14238613627814</v>
+        <v>2.10619288770238</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.146558487491866</v>
+        <v>9.413720385906107</v>
       </c>
       <c r="K5">
-        <v>22.83736109326158</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>9.848964395715637</v>
+        <v>13.72078548247241</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>17.54470255634198</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>14.88503422989061</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.26691025624987</v>
+        <v>20.08322170147828</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.365281477577986</v>
+        <v>12.03970244601312</v>
       </c>
       <c r="E6">
-        <v>9.934206877602199</v>
+        <v>17.58937607935546</v>
       </c>
       <c r="F6">
-        <v>59.64988045223918</v>
+        <v>49.28432141202697</v>
       </c>
       <c r="G6">
-        <v>2.143192764727229</v>
+        <v>2.107129846459138</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.140795447271825</v>
+        <v>9.387850575240259</v>
       </c>
       <c r="K6">
-        <v>22.76132036780454</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>9.826785537030482</v>
+        <v>13.68296908052168</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>17.50507628059973</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>14.90045576881116</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.52276435916848</v>
+        <v>20.44828505684627</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.595928414275184</v>
+        <v>12.38021246001853</v>
       </c>
       <c r="E7">
-        <v>10.12839035754072</v>
+        <v>18.05455101830545</v>
       </c>
       <c r="F7">
-        <v>60.56843983012662</v>
+        <v>49.97844913777033</v>
       </c>
       <c r="G7">
-        <v>2.137608938150032</v>
+        <v>2.100639813056791</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.180788057933012</v>
+        <v>9.566581423333091</v>
       </c>
       <c r="K7">
-        <v>23.35763733773782</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>9.981022806136414</v>
+        <v>13.94497387463662</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>17.78011677763843</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>14.79354138171959</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.65078930184934</v>
+        <v>22.03918200020139</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.574425118263621</v>
+        <v>13.83136866401354</v>
       </c>
       <c r="E8">
-        <v>10.9636780870049</v>
+        <v>20.03259116400493</v>
       </c>
       <c r="F8">
-        <v>64.61803942632044</v>
+        <v>53.12300241213919</v>
       </c>
       <c r="G8">
-        <v>2.113278296882953</v>
+        <v>2.072242927749714</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.357606487713324</v>
+        <v>10.33550135342016</v>
       </c>
       <c r="K8">
-        <v>25.97703751487076</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>10.66842840878212</v>
+        <v>15.08912976154111</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>18.99313817391389</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>14.32381203474841</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.85389606649354</v>
+        <v>25.08873596806676</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.36980048613476</v>
+        <v>16.5273816403081</v>
       </c>
       <c r="E9">
-        <v>12.53812470733613</v>
+        <v>23.68735443111397</v>
       </c>
       <c r="F9">
-        <v>72.56326919440342</v>
+        <v>59.62885639028688</v>
       </c>
       <c r="G9">
-        <v>2.065956927836814</v>
+        <v>2.016346606124932</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.712256684323206</v>
+        <v>11.78506577044051</v>
       </c>
       <c r="K9">
-        <v>30.77613346863817</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>12.54232668062535</v>
+        <v>17.58872839497351</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>21.42557892234202</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>13.39743646183674</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.47126121534365</v>
+        <v>27.39357405791984</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.63485013554594</v>
+        <v>18.46168201861005</v>
       </c>
       <c r="E10">
-        <v>13.67576680685167</v>
+        <v>26.29261241611059</v>
       </c>
       <c r="F10">
-        <v>78.45237108058227</v>
+        <v>64.70017734312026</v>
       </c>
       <c r="G10">
-        <v>2.030557559090202</v>
+        <v>1.973777342064834</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.986014126160812</v>
+        <v>12.8339851151396</v>
       </c>
       <c r="K10">
-        <v>34.14319577634457</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>13.92257789322414</v>
+        <v>19.53552879344977</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>23.74873786682404</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.69837924465376</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.26058380374624</v>
+        <v>28.52411970540819</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>13.20483760630156</v>
+        <v>19.34568082170641</v>
       </c>
       <c r="E11">
-        <v>14.19545541402037</v>
+        <v>27.47844274614899</v>
       </c>
       <c r="F11">
-        <v>81.16289749600755</v>
+        <v>67.10301566772506</v>
       </c>
       <c r="G11">
-        <v>2.014059793054144</v>
+        <v>1.953652597571048</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.115970102450392</v>
+        <v>13.31441331408059</v>
       </c>
       <c r="K11">
-        <v>35.6548271761715</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>14.54185132342718</v>
+        <v>20.41548568736213</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>24.79439611426034</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.37184376540019</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.58684009792617</v>
+        <v>28.95212907465318</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.42056640270695</v>
+        <v>19.68267341829604</v>
       </c>
       <c r="E12">
-        <v>14.39328038264262</v>
+        <v>27.92970152144328</v>
       </c>
       <c r="F12">
-        <v>82.19637573670829</v>
+        <v>68.03086812559695</v>
       </c>
       <c r="G12">
-        <v>2.007727684910358</v>
+        <v>1.945871883873259</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.166247725638032</v>
+        <v>13.49763442255883</v>
       </c>
       <c r="K12">
-        <v>36.22595380388415</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>14.77579447037877</v>
+        <v>20.74921939965417</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>25.19016994978547</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.24646735000342</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.51660615482004</v>
+        <v>28.85992884989363</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.37409772477148</v>
+        <v>19.60996401900468</v>
       </c>
       <c r="E13">
-        <v>14.35061574789623</v>
+        <v>27.83237527002174</v>
       </c>
       <c r="F13">
-        <v>81.97343411885907</v>
+        <v>67.8301562739193</v>
       </c>
       <c r="G13">
-        <v>2.009095712399812</v>
+        <v>1.947555699378563</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.155366700061332</v>
+        <v>13.45810064310309</v>
       </c>
       <c r="K13">
-        <v>36.10297919121195</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>14.72542300024158</v>
+        <v>20.67729521880862</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>25.10491417073102</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.27355550446413</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.28744035635513</v>
+        <v>28.55932540708183</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>13.22258351792931</v>
+        <v>19.37334904744017</v>
       </c>
       <c r="E14">
-        <v>14.2117050980965</v>
+        <v>27.51550916935399</v>
       </c>
       <c r="F14">
-        <v>81.24776332082641</v>
+        <v>67.17896128544221</v>
       </c>
       <c r="G14">
-        <v>2.013540731863002</v>
+        <v>1.953016027843715</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.120083181819281</v>
+        <v>13.32945533839897</v>
       </c>
       <c r="K14">
-        <v>35.70182945858068</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>14.5611047484179</v>
+        <v>20.44292273539302</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>24.82695084714749</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.36156686980394</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.14696445993964</v>
+        <v>28.37522929824418</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>13.12978495968956</v>
+        <v>19.22876577171342</v>
       </c>
       <c r="E15">
-        <v>14.12677726277885</v>
+        <v>27.32178189389998</v>
       </c>
       <c r="F15">
-        <v>80.80427804348714</v>
+        <v>66.78257391041235</v>
       </c>
       <c r="G15">
-        <v>2.016251442050313</v>
+        <v>1.956338029298892</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.098619688851594</v>
+        <v>13.25085418581392</v>
       </c>
       <c r="K15">
-        <v>35.45599925976919</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>14.46040481976911</v>
+        <v>20.2994762784625</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>24.65671453536564</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.41523473118932</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.42307473681821</v>
+        <v>27.31959627160808</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.59754373158745</v>
+        <v>18.4041225353638</v>
       </c>
       <c r="E16">
-        <v>13.64190454526839</v>
+        <v>26.2152950647443</v>
       </c>
       <c r="F16">
-        <v>78.27606364086297</v>
+        <v>64.54539685237523</v>
       </c>
       <c r="G16">
-        <v>2.03162554812147</v>
+        <v>1.975073274901186</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.977653080021605</v>
+        <v>12.80271791945608</v>
       </c>
       <c r="K16">
-        <v>34.04413019252398</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>13.88198772267907</v>
+        <v>19.47801195428849</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>23.68028794767137</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>12.71950779177003</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.00116790168549</v>
+        <v>26.67031616511906</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>12.27005630836992</v>
+        <v>17.90029870654199</v>
       </c>
       <c r="E17">
-        <v>13.34545812808389</v>
+        <v>25.53798241819862</v>
       </c>
       <c r="F17">
-        <v>76.73470998691528</v>
+        <v>63.20002094913954</v>
       </c>
       <c r="G17">
-        <v>2.040938165841355</v>
+        <v>1.986340769100396</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.905013705377274</v>
+        <v>12.52914114592048</v>
       </c>
       <c r="K17">
-        <v>33.17386515244979</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>13.52537358570687</v>
+        <v>18.97344409287975</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>23.07929856259974</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>12.90366893719627</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.75875140568998</v>
+        <v>26.3289102872024</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>12.08112874030417</v>
+        <v>17.61077277492949</v>
       </c>
       <c r="E18">
-        <v>13.17510130169893</v>
+        <v>25.14831695279379</v>
       </c>
       <c r="F18">
-        <v>75.85093926779008</v>
+        <v>62.43489702907211</v>
       </c>
       <c r="G18">
-        <v>2.046259435960049</v>
+        <v>1.992753793547002</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.863722919637096</v>
+        <v>12.3720322499386</v>
       </c>
       <c r="K18">
-        <v>32.67130792392921</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>13.31939948140536</v>
+        <v>18.68259921340854</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>22.73247010629153</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>13.00882667454361</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.67670523957666</v>
+        <v>26.21662216735124</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>12.01704598145009</v>
+        <v>17.51274653996783</v>
       </c>
       <c r="E19">
-        <v>13.11742860705987</v>
+        <v>25.01631285616379</v>
       </c>
       <c r="F19">
-        <v>75.55212249552116</v>
+        <v>62.17723054743595</v>
       </c>
       <c r="G19">
-        <v>2.048055844215988</v>
+        <v>1.994914798971143</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.849819099429296</v>
+        <v>12.31885923240198</v>
       </c>
       <c r="K19">
-        <v>32.50076443696208</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>13.24949463791579</v>
+        <v>18.58398175074627</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>22.61480528250271</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>13.04431271834797</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.04605153218953</v>
+        <v>26.73952905817241</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>12.3049720493063</v>
+        <v>17.95389431356524</v>
       </c>
       <c r="E20">
-        <v>13.37699511356286</v>
+        <v>25.6100799274762</v>
       </c>
       <c r="F20">
-        <v>76.89848683042393</v>
+        <v>63.34231266977834</v>
       </c>
       <c r="G20">
-        <v>2.039950636056105</v>
+        <v>1.985148653658613</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.912693798267916</v>
+        <v>12.55823338991862</v>
       </c>
       <c r="K20">
-        <v>33.26670349474826</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>13.56342030590465</v>
+        <v>19.02721316760761</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>23.14338561543138</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12.88414723851</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.35477239276187</v>
+        <v>28.64761026082478</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13.26708372943496</v>
+        <v>19.44277185046407</v>
       </c>
       <c r="E21">
-        <v>14.25247181563102</v>
+        <v>27.60850010193445</v>
       </c>
       <c r="F21">
-        <v>81.46069437831423</v>
+        <v>67.36970465466958</v>
       </c>
       <c r="G21">
-        <v>2.012237681744135</v>
+        <v>1.951417023293128</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.130415193911629</v>
+        <v>13.36719845611032</v>
       </c>
       <c r="K21">
-        <v>35.81967724781674</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>14.60937801667933</v>
+        <v>20.51173696517877</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>24.90858716757638</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.33576724384909</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.3034352015869</v>
+        <v>29.89501090940506</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.89567161371876</v>
+        <v>20.43011927489771</v>
       </c>
       <c r="E22">
-        <v>14.8311473887847</v>
+        <v>28.92902142623667</v>
       </c>
       <c r="F22">
-        <v>84.48536434960533</v>
+        <v>70.15418605819923</v>
       </c>
       <c r="G22">
-        <v>1.993612871004968</v>
+        <v>1.928402331987169</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.279118976245673</v>
+        <v>13.90406397007396</v>
       </c>
       <c r="K22">
-        <v>37.48171396479854</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>15.29014498796405</v>
+        <v>21.48591810999006</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>26.06214290966458</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.96697739038846</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.79732856775459</v>
+        <v>29.22866437918124</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.55992954537591</v>
+        <v>19.90114378402601</v>
       </c>
       <c r="E23">
-        <v>14.52140777795253</v>
+        <v>28.22201526183187</v>
       </c>
       <c r="F23">
-        <v>82.86603281789247</v>
+        <v>68.63561118371096</v>
       </c>
       <c r="G23">
-        <v>2.003611483713417</v>
+        <v>1.940795846040108</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.199049561057416</v>
+        <v>13.61642645847449</v>
       </c>
       <c r="K23">
-        <v>36.59460379431269</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>14.92679403764664</v>
+        <v>20.96505568706642</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>25.4458820669059</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.16496104385383</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.02575922980852</v>
+        <v>26.70824164997287</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.28918871821306</v>
+        <v>17.92966345450438</v>
       </c>
       <c r="E24">
-        <v>13.36273706275447</v>
+        <v>25.57748563186817</v>
       </c>
       <c r="F24">
-        <v>76.82443610350887</v>
+        <v>63.27795686345475</v>
       </c>
       <c r="G24">
-        <v>2.040397198039846</v>
+        <v>1.985687807329547</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.909220183090667</v>
+        <v>12.54508030219705</v>
       </c>
       <c r="K24">
-        <v>33.22473834111245</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>13.54622239723461</v>
+        <v>19.00290663648923</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>23.11441604419269</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12.89297520222262</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.25880838866021</v>
+        <v>24.27019621639791</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.89536653389414</v>
+        <v>15.81006756532854</v>
       </c>
       <c r="E25">
-        <v>12.11728153098473</v>
+        <v>22.71759110427458</v>
       </c>
       <c r="F25">
-        <v>70.40982910285133</v>
+        <v>57.82582393347189</v>
       </c>
       <c r="G25">
-        <v>2.07879653044181</v>
+        <v>2.031613197702221</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.614712225088639</v>
+        <v>11.39751844143188</v>
       </c>
       <c r="K25">
-        <v>29.50978282353681</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>12.02270529847076</v>
+        <v>16.85988277953318</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>20.72810877486656</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>13.65000371131601</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.46523510131227</v>
+        <v>24.73305841995459</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.21310211139688</v>
+        <v>9.233921178322126</v>
       </c>
       <c r="E2">
-        <v>20.55169765077915</v>
+        <v>11.27393118900182</v>
       </c>
       <c r="F2">
-        <v>53.99595251471938</v>
+        <v>61.72326398934612</v>
       </c>
       <c r="G2">
-        <v>2.064575281938424</v>
+        <v>3.809910653356395</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.53937387893728</v>
+        <v>8.56102981090592</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>15.39632008561491</v>
+        <v>16.86281897075598</v>
       </c>
       <c r="M2">
-        <v>19.32161758623028</v>
+        <v>23.6453671273699</v>
       </c>
       <c r="N2">
-        <v>14.19665437938369</v>
+        <v>22.33521215542341</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.22396889410232</v>
+        <v>24.55528154368904</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.09358688503187</v>
+        <v>8.916084172029803</v>
       </c>
       <c r="E3">
-        <v>19.02784400483668</v>
+        <v>10.57070393584663</v>
       </c>
       <c r="F3">
-        <v>51.48819458924648</v>
+        <v>61.49022616735567</v>
       </c>
       <c r="G3">
-        <v>2.086829290582118</v>
+        <v>3.817003170152329</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.943244101407856</v>
+        <v>8.356899060476605</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>14.5023113307044</v>
+        <v>16.74372705580461</v>
       </c>
       <c r="M3">
-        <v>18.36876246030292</v>
+        <v>23.55072815281521</v>
       </c>
       <c r="N3">
-        <v>14.56540857551389</v>
+        <v>22.42145310602256</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.45254612486386</v>
+        <v>24.4522169879869</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.38416732476577</v>
+        <v>8.719065730860281</v>
       </c>
       <c r="E4">
-        <v>18.05995156221686</v>
+        <v>10.14358530749869</v>
       </c>
       <c r="F4">
-        <v>49.98661468600265</v>
+        <v>61.36603679901448</v>
       </c>
       <c r="G4">
-        <v>2.100564046441888</v>
+        <v>3.821573203244703</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.568661563647508</v>
+        <v>8.227728163644276</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.94803307799937</v>
+        <v>16.67491604545873</v>
       </c>
       <c r="M4">
-        <v>17.78333488820203</v>
+        <v>23.4983601866515</v>
       </c>
       <c r="N4">
-        <v>14.79229199011484</v>
+        <v>22.4765470099945</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.1359278648891</v>
+        <v>24.41178175684721</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.08907634846179</v>
+        <v>8.638449296330952</v>
       </c>
       <c r="E5">
-        <v>17.65684992612656</v>
+        <v>9.992899901171183</v>
       </c>
       <c r="F5">
-        <v>49.3838637292407</v>
+        <v>61.32018594676134</v>
       </c>
       <c r="G5">
-        <v>2.10619288770238</v>
+        <v>3.823489928769148</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.413720385906107</v>
+        <v>8.174159733267274</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.72078548247241</v>
+        <v>16.64797886292676</v>
       </c>
       <c r="M5">
-        <v>17.54470255634198</v>
+        <v>23.47847401286271</v>
       </c>
       <c r="N5">
-        <v>14.88503422989061</v>
+        <v>22.4995391428306</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.08322170147828</v>
+        <v>24.40516290452295</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12.03970244601312</v>
+        <v>8.625047334375994</v>
       </c>
       <c r="E6">
-        <v>17.58937607935546</v>
+        <v>9.967713490368922</v>
       </c>
       <c r="F6">
-        <v>49.28432141202697</v>
+        <v>61.31285981198032</v>
       </c>
       <c r="G6">
-        <v>2.107129846459138</v>
+        <v>3.823811493579157</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.387850575240259</v>
+        <v>8.165209584121248</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.68296908052168</v>
+        <v>16.6435731678664</v>
       </c>
       <c r="M6">
-        <v>17.50507628059973</v>
+        <v>23.47526003386399</v>
       </c>
       <c r="N6">
-        <v>14.90045576881116</v>
+        <v>22.50338970925681</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.44828505684627</v>
+        <v>24.45166528890461</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.38021246001853</v>
+        <v>8.717979653811311</v>
       </c>
       <c r="E7">
-        <v>18.05455101830545</v>
+        <v>10.1415643388777</v>
       </c>
       <c r="F7">
-        <v>49.97844913777033</v>
+        <v>61.36539917356016</v>
       </c>
       <c r="G7">
-        <v>2.100639813056791</v>
+        <v>3.821598832231263</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.566581423333091</v>
+        <v>8.227009441271578</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.94497387463662</v>
+        <v>16.67454826727319</v>
       </c>
       <c r="M7">
-        <v>17.78011677763843</v>
+        <v>23.4980860940267</v>
       </c>
       <c r="N7">
-        <v>14.79354138171959</v>
+        <v>22.47685489658678</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.03918200020139</v>
+        <v>24.67051722695107</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.83136866401354</v>
+        <v>9.124798571305517</v>
       </c>
       <c r="E8">
-        <v>20.03259116400493</v>
+        <v>11.03665453568465</v>
       </c>
       <c r="F8">
-        <v>53.12300241213919</v>
+        <v>61.63899580919232</v>
       </c>
       <c r="G8">
-        <v>2.072242927749714</v>
+        <v>3.812311661693569</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.33550135342016</v>
+        <v>8.491460785074844</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>15.08912976154111</v>
+        <v>16.82087350152493</v>
       </c>
       <c r="M8">
-        <v>18.99313817391389</v>
+        <v>23.61155103940035</v>
       </c>
       <c r="N8">
-        <v>14.32381203474841</v>
+        <v>22.36450499582531</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.08873596806676</v>
+        <v>25.14644857841699</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.5273816403081</v>
+        <v>9.902171814749108</v>
       </c>
       <c r="E9">
-        <v>23.68735443111397</v>
+        <v>12.65262946596458</v>
       </c>
       <c r="F9">
-        <v>59.62885639028688</v>
+        <v>62.3249210538329</v>
       </c>
       <c r="G9">
-        <v>2.016346606124932</v>
+        <v>3.795793960477101</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.78506577044051</v>
+        <v>8.978267892946478</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>17.58872839497351</v>
+        <v>17.14107833106319</v>
       </c>
       <c r="M9">
-        <v>21.42557892234202</v>
+        <v>23.8790590173858</v>
       </c>
       <c r="N9">
-        <v>13.39743646183674</v>
+        <v>22.16106818183429</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.39357405791984</v>
+        <v>25.52235884518037</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>18.46168201861005</v>
+        <v>10.45414237170049</v>
       </c>
       <c r="E10">
-        <v>26.29261241611059</v>
+        <v>13.71913138313488</v>
       </c>
       <c r="F10">
-        <v>64.70017734312026</v>
+        <v>62.91882685419489</v>
       </c>
       <c r="G10">
-        <v>1.973777342064834</v>
+        <v>3.784672974723491</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.8339851151396</v>
+        <v>9.31490109728677</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.53552879344977</v>
+        <v>17.39521835057068</v>
       </c>
       <c r="M10">
-        <v>23.74873786682404</v>
+        <v>24.1021908043215</v>
       </c>
       <c r="N10">
-        <v>12.69837924465376</v>
+        <v>22.02173427825295</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.52411970540819</v>
+        <v>25.69854351201182</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>19.34568082170641</v>
+        <v>10.69988340841749</v>
       </c>
       <c r="E11">
-        <v>27.47844274614899</v>
+        <v>14.17823705263958</v>
       </c>
       <c r="F11">
-        <v>67.10301566772506</v>
+        <v>63.20817395684468</v>
       </c>
       <c r="G11">
-        <v>1.953652597571048</v>
+        <v>3.779830074625889</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>13.31441331408059</v>
+        <v>9.463177510909492</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>20.41548568736213</v>
+        <v>17.51460647731944</v>
       </c>
       <c r="M11">
-        <v>24.79439611426034</v>
+        <v>24.20926065238888</v>
       </c>
       <c r="N11">
-        <v>12.37184376540019</v>
+        <v>21.96051290598407</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.95212907465318</v>
+        <v>25.76595846154786</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>19.68267341829604</v>
+        <v>10.79208349723497</v>
       </c>
       <c r="E12">
-        <v>27.92970152144328</v>
+        <v>14.34835686234603</v>
       </c>
       <c r="F12">
-        <v>68.03086812559695</v>
+        <v>63.32045883543368</v>
       </c>
       <c r="G12">
-        <v>1.945871883873259</v>
+        <v>3.778026953712254</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.49763442255883</v>
+        <v>9.518604755266493</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>20.74921939965417</v>
+        <v>17.56032956473542</v>
       </c>
       <c r="M12">
-        <v>25.19016994978547</v>
+        <v>24.25058518557648</v>
       </c>
       <c r="N12">
-        <v>12.24646735000342</v>
+        <v>21.93763826750277</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.85992884989363</v>
+        <v>25.75140918554284</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>19.60996401900468</v>
+        <v>10.77226593737646</v>
       </c>
       <c r="E13">
-        <v>27.83237527002174</v>
+        <v>14.3118843435625</v>
       </c>
       <c r="F13">
-        <v>67.8301562739193</v>
+        <v>63.29615623845068</v>
       </c>
       <c r="G13">
-        <v>1.947555699378563</v>
+        <v>3.778413923797794</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13.45810064310309</v>
+        <v>9.506699951926935</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>20.67729521880862</v>
+        <v>17.55045993305394</v>
       </c>
       <c r="M13">
-        <v>25.10491417073102</v>
+        <v>24.24165088613853</v>
       </c>
       <c r="N13">
-        <v>12.27355550446413</v>
+        <v>21.94255104443934</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.55932540708183</v>
+        <v>25.70407607452232</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>19.37334904744017</v>
+        <v>10.70748639679716</v>
       </c>
       <c r="E14">
-        <v>27.51550916935399</v>
+        <v>14.19230765736863</v>
       </c>
       <c r="F14">
-        <v>67.17896128544221</v>
+        <v>63.21735754148627</v>
       </c>
       <c r="G14">
-        <v>1.953016027843715</v>
+        <v>3.779681115590241</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>13.32945533839897</v>
+        <v>9.467752133701431</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>20.44292273539302</v>
+        <v>17.51835802890569</v>
       </c>
       <c r="M14">
-        <v>24.82695084714749</v>
+        <v>24.2126449486198</v>
       </c>
       <c r="N14">
-        <v>12.36156686980394</v>
+        <v>21.95862482520506</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.37522929824418</v>
+        <v>25.67517260313822</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>19.22876577171342</v>
+        <v>10.66769308241408</v>
       </c>
       <c r="E15">
-        <v>27.32178189389998</v>
+        <v>14.11857767927182</v>
       </c>
       <c r="F15">
-        <v>66.78257391041235</v>
+        <v>63.16944334617997</v>
       </c>
       <c r="G15">
-        <v>1.956338029298892</v>
+        <v>3.780461306903697</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13.25085418581392</v>
+        <v>9.443800824338421</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>20.2994762784625</v>
+        <v>17.49876063994377</v>
       </c>
       <c r="M15">
-        <v>24.65671453536564</v>
+        <v>24.19497884589786</v>
       </c>
       <c r="N15">
-        <v>12.41523473118932</v>
+        <v>21.96851059398853</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.31959627160808</v>
+        <v>25.5109449974005</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>18.4041225353638</v>
+        <v>10.43796723329779</v>
       </c>
       <c r="E16">
-        <v>26.2152950647443</v>
+        <v>13.68860455355255</v>
       </c>
       <c r="F16">
-        <v>64.54539685237523</v>
+        <v>62.9002997443879</v>
       </c>
       <c r="G16">
-        <v>1.975073274901186</v>
+        <v>3.784993792910226</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.80271791945608</v>
+        <v>9.305111078419202</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>19.47801195428849</v>
+        <v>17.38748955101334</v>
       </c>
       <c r="M16">
-        <v>23.68028794767137</v>
+        <v>24.09530378723834</v>
       </c>
       <c r="N16">
-        <v>12.71950779177003</v>
+        <v>22.02577854762133</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.67031616511906</v>
+        <v>25.41149038395393</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.90029870654199</v>
+        <v>10.29560167990546</v>
       </c>
       <c r="E17">
-        <v>25.53798241819862</v>
+        <v>13.41816581694092</v>
       </c>
       <c r="F17">
-        <v>63.20002094913954</v>
+        <v>62.74007220309116</v>
       </c>
       <c r="G17">
-        <v>1.986340769100396</v>
+        <v>3.787829464367927</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.52914114592048</v>
+        <v>9.218767649656883</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.97344409287975</v>
+        <v>17.32017511929388</v>
       </c>
       <c r="M17">
-        <v>23.07929856259974</v>
+        <v>24.03556755016143</v>
       </c>
       <c r="N17">
-        <v>12.90366893719627</v>
+        <v>22.06146271767083</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.3289102872024</v>
+        <v>25.3547773278058</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.61077277492949</v>
+        <v>10.21321744486191</v>
       </c>
       <c r="E18">
-        <v>25.14831695279379</v>
+        <v>13.26016360962619</v>
       </c>
       <c r="F18">
-        <v>62.43489702907211</v>
+        <v>62.64972142091997</v>
       </c>
       <c r="G18">
-        <v>1.992753793547002</v>
+        <v>3.789480824868253</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.3720322499386</v>
+        <v>9.168649003615341</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.68259921340854</v>
+        <v>17.28181515597058</v>
       </c>
       <c r="M18">
-        <v>22.73247010629153</v>
+        <v>24.00173409417811</v>
       </c>
       <c r="N18">
-        <v>13.00882667454361</v>
+        <v>22.08219097845091</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.21662216735124</v>
+        <v>25.33566094741149</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.51274653996783</v>
+        <v>10.18524061441744</v>
       </c>
       <c r="E19">
-        <v>25.01631285616379</v>
+        <v>13.20624512590361</v>
       </c>
       <c r="F19">
-        <v>62.17723054743595</v>
+        <v>62.61944189178072</v>
       </c>
       <c r="G19">
-        <v>1.994914798971143</v>
+        <v>3.790043452448828</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.31885923240198</v>
+        <v>9.151602077633157</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.58398175074627</v>
+        <v>17.26888943219828</v>
       </c>
       <c r="M19">
-        <v>22.61480528250271</v>
+        <v>23.99036949285698</v>
       </c>
       <c r="N19">
-        <v>13.04431271834797</v>
+        <v>22.08924426399651</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.73952905817241</v>
+        <v>25.42202706093196</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.95389431356524</v>
+        <v>10.31080907742719</v>
       </c>
       <c r="E20">
-        <v>25.6100799274762</v>
+        <v>13.44720827386738</v>
       </c>
       <c r="F20">
-        <v>63.34231266977834</v>
+        <v>62.75694187912799</v>
       </c>
       <c r="G20">
-        <v>1.985148653658613</v>
+        <v>3.787525497520009</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.55823338991862</v>
+        <v>9.228006442552177</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>19.02721316760761</v>
+        <v>17.32730406777413</v>
       </c>
       <c r="M20">
-        <v>23.14338561543138</v>
+        <v>24.04187236044949</v>
       </c>
       <c r="N20">
-        <v>12.88414723851</v>
+        <v>22.05764301496336</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.64761026082478</v>
+        <v>25.71796040650639</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>19.44277185046407</v>
+        <v>10.72653761153995</v>
       </c>
       <c r="E21">
-        <v>27.60850010193445</v>
+        <v>14.22753144453405</v>
       </c>
       <c r="F21">
-        <v>67.36970465466958</v>
+        <v>63.24042929642282</v>
       </c>
       <c r="G21">
-        <v>1.951417023293128</v>
+        <v>3.779308077624704</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13.36719845611032</v>
+        <v>9.479211814142847</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>20.51173696517877</v>
+        <v>17.52777344619914</v>
       </c>
       <c r="M21">
-        <v>24.90858716757638</v>
+        <v>24.22114371315909</v>
       </c>
       <c r="N21">
-        <v>12.33576724384909</v>
+        <v>21.95389521067104</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.89501090940506</v>
+        <v>25.9154135822894</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>20.43011927489771</v>
+        <v>10.99321339923847</v>
       </c>
       <c r="E22">
-        <v>28.92902142623667</v>
+        <v>14.71576312416393</v>
       </c>
       <c r="F22">
-        <v>70.15418605819923</v>
+        <v>63.57222042101731</v>
       </c>
       <c r="G22">
-        <v>1.928402331987169</v>
+        <v>3.774116791935854</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>13.90406397007396</v>
+        <v>9.639172638528684</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>21.48591810999006</v>
+        <v>17.66176973762839</v>
       </c>
       <c r="M22">
-        <v>26.06214290966458</v>
+        <v>24.34284084915998</v>
       </c>
       <c r="N22">
-        <v>11.96697739038846</v>
+        <v>21.88788748031888</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.22866437918124</v>
+        <v>25.8096750654398</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>19.90114378402601</v>
+        <v>10.85136959523193</v>
       </c>
       <c r="E23">
-        <v>28.22201526183187</v>
+        <v>14.45717051721499</v>
       </c>
       <c r="F23">
-        <v>68.63561118371096</v>
+        <v>63.39370649422266</v>
       </c>
       <c r="G23">
-        <v>1.940795846040108</v>
+        <v>3.776871172777354</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>13.61642645847449</v>
+        <v>9.554191363701493</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>20.96505568706642</v>
+        <v>17.58999103394492</v>
       </c>
       <c r="M23">
-        <v>25.4458820669059</v>
+        <v>24.27748127501272</v>
       </c>
       <c r="N23">
-        <v>12.16496104385383</v>
+        <v>21.92295336597309</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.70824164997287</v>
+        <v>25.41726197817175</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.92966345450438</v>
+        <v>10.30393547701163</v>
       </c>
       <c r="E24">
-        <v>25.57748563186817</v>
+        <v>13.43408603977265</v>
       </c>
       <c r="F24">
-        <v>63.27795686345475</v>
+        <v>62.74930959425068</v>
       </c>
       <c r="G24">
-        <v>1.985687807329547</v>
+        <v>3.787662855202314</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.54508030219705</v>
+        <v>9.223831073430095</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>19.00290663648923</v>
+        <v>17.32408000888075</v>
       </c>
       <c r="M24">
-        <v>23.11441604419269</v>
+        <v>24.03902036654105</v>
       </c>
       <c r="N24">
-        <v>12.89297520222262</v>
+        <v>22.05936923906767</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.27019621639791</v>
+        <v>25.01291520581773</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>15.81006756532854</v>
+        <v>9.694792898640104</v>
       </c>
       <c r="E25">
-        <v>22.71759110427458</v>
+        <v>12.23670984259551</v>
       </c>
       <c r="F25">
-        <v>57.82582393347189</v>
+        <v>62.12345618934955</v>
       </c>
       <c r="G25">
-        <v>2.031613197702221</v>
+        <v>3.800082933543156</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.39751844143188</v>
+        <v>8.850155452492478</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>16.85988277953318</v>
+        <v>17.05103086449119</v>
       </c>
       <c r="M25">
-        <v>20.72810877486656</v>
+        <v>23.80195328338798</v>
       </c>
       <c r="N25">
-        <v>13.65000371131601</v>
+        <v>22.21431252477698</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -462,120 +468,678 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="D3">
+        <v>43.5107251747954</v>
+      </c>
+      <c r="E3">
+        <v>95.49279159557362</v>
+      </c>
+      <c r="F3">
+        <v>218.3234477510321</v>
+      </c>
+      <c r="G3">
+        <v>1.205253832668119</v>
+      </c>
+      <c r="H3">
+        <v>23.86503122336507</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="D4">
+        <v>45.08637646533597</v>
+      </c>
+      <c r="E4">
+        <v>102.8869690443724</v>
+      </c>
+      <c r="F4">
+        <v>226.0140140946302</v>
+      </c>
+      <c r="G4">
+        <v>1.120022410862547</v>
+      </c>
+      <c r="H4">
+        <v>25.84934959665036</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="D5">
+        <v>45.61326001744574</v>
+      </c>
+      <c r="E5">
+        <v>105.6040778710639</v>
+      </c>
+      <c r="F5">
+        <v>228.5562083009694</v>
+      </c>
+      <c r="G5">
+        <v>1.088746650214477</v>
+      </c>
+      <c r="H5">
+        <v>26.57090986565003</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="D6">
+        <v>45.69596225747888</v>
+      </c>
+      <c r="E6">
+        <v>106.044230351455</v>
+      </c>
+      <c r="F6">
+        <v>228.9533939546374</v>
+      </c>
+      <c r="G6">
+        <v>1.083683353600273</v>
+      </c>
+      <c r="H6">
+        <v>26.68739920025299</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="D7">
+        <v>45.09383788951916</v>
+      </c>
+      <c r="E7">
+        <v>102.9244620842174</v>
+      </c>
+      <c r="F7">
+        <v>226.050143597389</v>
+      </c>
+      <c r="G7">
+        <v>1.119590631378236</v>
+      </c>
+      <c r="H7">
+        <v>25.85933485781642</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="D8">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E8">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F8">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G8">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H8">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="D9">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E9">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F9">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G9">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H9">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="D10">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E10">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F10">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G10">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H10">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="D11">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E11">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F11">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G11">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H11">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="D12">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E12">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F12">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G12">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H12">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="D13">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E13">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F13">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G13">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H13">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="D14">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E14">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F14">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G14">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H14">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="D15">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E15">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F15">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G15">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H15">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="D16">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E16">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F16">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G16">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H16">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="D17">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E17">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F17">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G17">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H17">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="D18">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E18">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F18">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G18">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H18">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="D19">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E19">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F19">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G19">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H19">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="D20">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E20">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F20">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G20">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H20">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="D21">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E21">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F21">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G21">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H21">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="D22">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E22">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F22">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G22">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H22">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="D23">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E23">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F23">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G23">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H23">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="D24">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E24">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F24">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G24">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H24">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="D25">
+        <v>40.83748844030422</v>
+      </c>
+      <c r="E25">
+        <v>84.70618850595142</v>
+      </c>
+      <c r="F25">
+        <v>205.102975018343</v>
+      </c>
+      <c r="G25">
+        <v>1.329601762164938</v>
+      </c>
+      <c r="H25">
+        <v>20.92106324340801</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
@@ -427,43 +427,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>11.60004607768349</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.029038851925393</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7.593858823445776</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>28.75658804612303</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>37.34401896802474</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.518407956223737</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.718894462905652</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>12.40422439710133</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.1985859273043</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.348372346538615</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.95372459271778</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.675450248154014</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -479,25 +479,49 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>10.9223063372752</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
-        <v>43.5107251747954</v>
+        <v>3.926331539222574</v>
       </c>
       <c r="E3">
-        <v>95.49279159557362</v>
+        <v>7.430810088522295</v>
       </c>
       <c r="F3">
-        <v>218.3234477510321</v>
+        <v>28.231053985745</v>
       </c>
       <c r="G3">
-        <v>1.205253832668119</v>
+        <v>36.43323469234954</v>
       </c>
       <c r="H3">
-        <v>23.86503122336507</v>
+        <v>3.751094134853662</v>
+      </c>
+      <c r="I3">
+        <v>4.873374949343535</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>12.32354634972979</v>
+      </c>
+      <c r="K3">
+        <v>20.18517922591876</v>
       </c>
       <c r="L3">
+        <v>6.261087378132915</v>
+      </c>
+      <c r="M3">
+        <v>13.09328798943735</v>
+      </c>
+      <c r="N3">
+        <v>7.336730642872173</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
@@ -508,25 +532,49 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>10.48227725043609</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
-        <v>45.08637646533597</v>
+        <v>3.862158527448829</v>
       </c>
       <c r="E4">
-        <v>102.8869690443724</v>
+        <v>7.327659912816634</v>
       </c>
       <c r="F4">
-        <v>226.0140140946302</v>
+        <v>27.91051121924481</v>
       </c>
       <c r="G4">
-        <v>1.120022410862547</v>
+        <v>35.87452600712511</v>
       </c>
       <c r="H4">
-        <v>25.84934959665036</v>
+        <v>3.898950745949967</v>
+      </c>
+      <c r="I4">
+        <v>4.972083280395063</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.27705136062258</v>
+      </c>
+      <c r="K4">
+        <v>20.1771472167062</v>
       </c>
       <c r="L4">
+        <v>6.205658192500958</v>
+      </c>
+      <c r="M4">
+        <v>12.53762592316473</v>
+      </c>
+      <c r="N4">
+        <v>7.124212530664092</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
@@ -537,25 +585,49 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>10.29135651986513</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
-        <v>45.61326001744574</v>
+        <v>3.835955311439201</v>
       </c>
       <c r="E5">
-        <v>105.6040778710639</v>
+        <v>7.283511479444403</v>
       </c>
       <c r="F5">
-        <v>228.5562083009694</v>
+        <v>27.7661338304478</v>
       </c>
       <c r="G5">
-        <v>1.088746650214477</v>
+        <v>35.62309581284123</v>
       </c>
       <c r="H5">
-        <v>26.57090986565003</v>
+        <v>3.960829471719295</v>
+      </c>
+      <c r="I5">
+        <v>5.015618087102076</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.25428153803471</v>
+      </c>
+      <c r="K5">
+        <v>20.16292080093239</v>
       </c>
       <c r="L5">
+        <v>6.182019359825334</v>
+      </c>
+      <c r="M5">
+        <v>12.30939715868098</v>
+      </c>
+      <c r="N5">
+        <v>7.041758951317366</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
@@ -566,25 +638,49 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>10.25235273333509</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
-        <v>45.69596225747888</v>
+        <v>3.831859320704794</v>
       </c>
       <c r="E6">
-        <v>106.044230351455</v>
+        <v>7.274513116745663</v>
       </c>
       <c r="F6">
-        <v>228.9533939546374</v>
+        <v>27.72459810682221</v>
       </c>
       <c r="G6">
-        <v>1.083683353600273</v>
+        <v>35.55188998871391</v>
       </c>
       <c r="H6">
-        <v>26.68739920025299</v>
+        <v>3.971608728724719</v>
+      </c>
+      <c r="I6">
+        <v>5.025860459222018</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.24495095006112</v>
+      </c>
+      <c r="K6">
+        <v>20.14713008238578</v>
       </c>
       <c r="L6">
+        <v>6.177365174100494</v>
+      </c>
+      <c r="M6">
+        <v>12.27728542848182</v>
+      </c>
+      <c r="N6">
+        <v>7.034361912852892</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
@@ -595,25 +691,49 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>10.46114815781934</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7">
-        <v>45.09383788951916</v>
+        <v>3.862539366069758</v>
       </c>
       <c r="E7">
-        <v>102.9244620842174</v>
+        <v>7.32269842498356</v>
       </c>
       <c r="F7">
-        <v>226.050143597389</v>
+        <v>27.8608373697046</v>
       </c>
       <c r="G7">
-        <v>1.119590631378236</v>
+        <v>35.79134519946955</v>
       </c>
       <c r="H7">
-        <v>25.85933485781642</v>
+        <v>3.900923767787236</v>
+      </c>
+      <c r="I7">
+        <v>4.980480199375025</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.26153004662989</v>
+      </c>
+      <c r="K7">
+        <v>20.14035556771006</v>
       </c>
       <c r="L7">
+        <v>6.203466688508535</v>
+      </c>
+      <c r="M7">
+        <v>12.55113641981449</v>
+      </c>
+      <c r="N7">
+        <v>7.140177029691992</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
@@ -624,25 +744,49 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>11.3484595869433</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8">
-        <v>40.83748844030422</v>
+        <v>3.99479234076211</v>
       </c>
       <c r="E8">
-        <v>84.70618850595142</v>
+        <v>7.532740273347007</v>
       </c>
       <c r="F8">
-        <v>205.102975018343</v>
+        <v>28.51356994132808</v>
       </c>
       <c r="G8">
-        <v>1.329601762164938</v>
+        <v>36.92798531121617</v>
       </c>
       <c r="H8">
-        <v>20.92106324340801</v>
+        <v>3.599035202872106</v>
+      </c>
+      <c r="I8">
+        <v>4.781180116283132</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>12.35597597654602</v>
+      </c>
+      <c r="K8">
+        <v>20.14599195115622</v>
       </c>
       <c r="L8">
+        <v>6.316347117367719</v>
+      </c>
+      <c r="M8">
+        <v>13.68308443394293</v>
+      </c>
+      <c r="N8">
+        <v>7.581015820122448</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
@@ -653,25 +797,49 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>12.92632137267225</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9">
-        <v>40.83748844030422</v>
+        <v>4.243959104539869</v>
       </c>
       <c r="E9">
-        <v>84.70618850595142</v>
+        <v>7.928840686569376</v>
       </c>
       <c r="F9">
-        <v>205.102975018343</v>
+        <v>29.88840086716846</v>
       </c>
       <c r="G9">
-        <v>1.329601762164938</v>
+        <v>39.28795035584262</v>
       </c>
       <c r="H9">
-        <v>20.92106324340801</v>
+        <v>3.043691736372826</v>
+      </c>
+      <c r="I9">
+        <v>4.407628812297133</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.5924762355392</v>
+      </c>
+      <c r="K9">
+        <v>20.22334233124177</v>
       </c>
       <c r="L9">
+        <v>6.52673764973294</v>
+      </c>
+      <c r="M9">
+        <v>15.65903809763224</v>
+      </c>
+      <c r="N9">
+        <v>8.377529923748469</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
@@ -682,25 +850,49 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>13.93544128635199</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10">
-        <v>40.83748844030422</v>
+        <v>4.40743014031167</v>
       </c>
       <c r="E10">
-        <v>84.70618850595142</v>
+        <v>8.177037228554857</v>
       </c>
       <c r="F10">
-        <v>205.102975018343</v>
+        <v>30.64654296821098</v>
       </c>
       <c r="G10">
-        <v>1.329601762164938</v>
+        <v>40.61980186402349</v>
       </c>
       <c r="H10">
-        <v>20.92106324340801</v>
+        <v>2.685208272718566</v>
+      </c>
+      <c r="I10">
+        <v>4.160953172741843</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.70395461502037</v>
+      </c>
+      <c r="K10">
+        <v>20.13241934967185</v>
       </c>
       <c r="L10">
+        <v>6.6667895811297</v>
+      </c>
+      <c r="M10">
+        <v>17.00350468310489</v>
+      </c>
+      <c r="N10">
+        <v>8.870389434169015</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
@@ -711,25 +903,49 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>14.14606461215547</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11">
-        <v>40.83748844030422</v>
+        <v>4.361035911521105</v>
       </c>
       <c r="E11">
-        <v>84.70618850595142</v>
+        <v>8.147450033820364</v>
       </c>
       <c r="F11">
-        <v>205.102975018343</v>
+        <v>28.92375711116597</v>
       </c>
       <c r="G11">
-        <v>1.329601762164938</v>
+        <v>38.08143550615616</v>
       </c>
       <c r="H11">
-        <v>20.92106324340801</v>
+        <v>3.409440904949786</v>
+      </c>
+      <c r="I11">
+        <v>4.11462702046332</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.12487658776782</v>
+      </c>
+      <c r="K11">
+        <v>18.94587856462298</v>
       </c>
       <c r="L11">
+        <v>6.738330104118696</v>
+      </c>
+      <c r="M11">
+        <v>17.76280201971583</v>
+      </c>
+      <c r="N11">
+        <v>8.496456261746722</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
@@ -740,25 +956,49 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>14.13768966771747</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
-        <v>40.83748844030422</v>
+        <v>4.290863551410935</v>
       </c>
       <c r="E12">
-        <v>84.70618850595142</v>
+        <v>8.217850234395803</v>
       </c>
       <c r="F12">
-        <v>205.102975018343</v>
+        <v>27.36402972423624</v>
       </c>
       <c r="G12">
-        <v>1.329601762164938</v>
+        <v>35.73574340717551</v>
       </c>
       <c r="H12">
-        <v>20.92106324340801</v>
+        <v>4.607103282195449</v>
+      </c>
+      <c r="I12">
+        <v>4.109148102836711</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.63300197838989</v>
+      </c>
+      <c r="K12">
+        <v>18.07942888415969</v>
       </c>
       <c r="L12">
+        <v>6.851173703916668</v>
+      </c>
+      <c r="M12">
+        <v>18.11403538218828</v>
+      </c>
+      <c r="N12">
+        <v>8.048217956525267</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
@@ -769,25 +1009,49 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>13.93808972382403</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13">
-        <v>40.83748844030422</v>
+        <v>4.197680319196997</v>
       </c>
       <c r="E13">
-        <v>84.70618850595142</v>
+        <v>8.355863388618145</v>
       </c>
       <c r="F13">
-        <v>205.102975018343</v>
+        <v>25.75258652137214</v>
       </c>
       <c r="G13">
-        <v>1.329601762164938</v>
+        <v>33.24678623630108</v>
       </c>
       <c r="H13">
-        <v>20.92106324340801</v>
+        <v>5.937127385331585</v>
+      </c>
+      <c r="I13">
+        <v>4.147243023366405</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.15490028126468</v>
+      </c>
+      <c r="K13">
+        <v>17.36450137321985</v>
       </c>
       <c r="L13">
+        <v>6.99380406323209</v>
+      </c>
+      <c r="M13">
+        <v>18.2028564308573</v>
+      </c>
+      <c r="N13">
+        <v>7.526508544665464</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
@@ -798,25 +1062,49 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>13.70466757240004</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14">
-        <v>40.83748844030422</v>
+        <v>4.122556598138989</v>
       </c>
       <c r="E14">
-        <v>84.70618850595142</v>
+        <v>8.497731257566032</v>
       </c>
       <c r="F14">
-        <v>205.102975018343</v>
+        <v>24.5910543538792</v>
       </c>
       <c r="G14">
-        <v>1.329601762164938</v>
+        <v>31.41142546615128</v>
       </c>
       <c r="H14">
-        <v>20.92106324340801</v>
+        <v>6.906530790973677</v>
+      </c>
+      <c r="I14">
+        <v>4.195770088323461</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.82548627895172</v>
+      </c>
+      <c r="K14">
+        <v>16.94578872125492</v>
       </c>
       <c r="L14">
+        <v>7.114568901672855</v>
+      </c>
+      <c r="M14">
+        <v>18.15197171918363</v>
+      </c>
+      <c r="N14">
+        <v>7.126969716999959</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
@@ -827,25 +1115,49 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>13.6005515691947</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15">
-        <v>40.83748844030422</v>
+        <v>4.098927122613945</v>
       </c>
       <c r="E15">
-        <v>84.70618850595142</v>
+        <v>8.529273031270721</v>
       </c>
       <c r="F15">
-        <v>205.102975018343</v>
+        <v>24.28421919563491</v>
       </c>
       <c r="G15">
-        <v>1.329601762164938</v>
+        <v>30.91105954144763</v>
       </c>
       <c r="H15">
-        <v>20.92106324340801</v>
+        <v>7.136696040243951</v>
+      </c>
+      <c r="I15">
+        <v>4.220970897089085</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.74414837425197</v>
+      </c>
+      <c r="K15">
+        <v>16.86111360624448</v>
       </c>
       <c r="L15">
+        <v>7.141082344631319</v>
+      </c>
+      <c r="M15">
+        <v>18.08810987582088</v>
+      </c>
+      <c r="N15">
+        <v>7.019380970910301</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
@@ -856,25 +1168,49 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>13.20383299919575</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16">
-        <v>40.83748844030422</v>
+        <v>4.045097439269652</v>
       </c>
       <c r="E16">
-        <v>84.70618850595142</v>
+        <v>8.389965551693956</v>
       </c>
       <c r="F16">
-        <v>205.102975018343</v>
+        <v>24.22319732058784</v>
       </c>
       <c r="G16">
-        <v>1.329601762164938</v>
+        <v>30.70836846250629</v>
       </c>
       <c r="H16">
-        <v>20.92106324340801</v>
+        <v>6.975865968232919</v>
+      </c>
+      <c r="I16">
+        <v>4.323978477548753</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.78147360269562</v>
+      </c>
+      <c r="K16">
+        <v>17.03613994418871</v>
       </c>
       <c r="L16">
+        <v>7.048173161179842</v>
+      </c>
+      <c r="M16">
+        <v>17.53760239350849</v>
+      </c>
+      <c r="N16">
+        <v>6.899193777464858</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
@@ -885,25 +1221,49 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>13.02291234608597</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="D17">
-        <v>40.83748844030422</v>
+        <v>4.044032475333492</v>
       </c>
       <c r="E17">
-        <v>84.70618850595142</v>
+        <v>8.193769118289355</v>
       </c>
       <c r="F17">
-        <v>205.102975018343</v>
+        <v>24.79811754605044</v>
       </c>
       <c r="G17">
-        <v>1.329601762164938</v>
+        <v>31.54740246615811</v>
       </c>
       <c r="H17">
-        <v>20.92106324340801</v>
+        <v>6.314854223821653</v>
+      </c>
+      <c r="I17">
+        <v>4.37785297109833</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.984227855535</v>
+      </c>
+      <c r="K17">
+        <v>17.37878499077074</v>
       </c>
       <c r="L17">
+        <v>6.905775059085803</v>
+      </c>
+      <c r="M17">
+        <v>17.13444980499265</v>
+      </c>
+      <c r="N17">
+        <v>7.027238899373378</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
@@ -914,25 +1274,49 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>13.02486969137014</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18">
-        <v>40.83748844030422</v>
+        <v>4.090669573973075</v>
       </c>
       <c r="E18">
-        <v>84.70618850595142</v>
+        <v>7.988000479746906</v>
       </c>
       <c r="F18">
-        <v>205.102975018343</v>
+        <v>26.02625936289823</v>
       </c>
       <c r="G18">
-        <v>1.329601762164938</v>
+        <v>33.4348760956347</v>
       </c>
       <c r="H18">
-        <v>20.92106324340801</v>
+        <v>5.198275548083866</v>
+      </c>
+      <c r="I18">
+        <v>4.385063131882998</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.36633945351142</v>
+      </c>
+      <c r="K18">
+        <v>17.97284321794626</v>
       </c>
       <c r="L18">
+        <v>6.736773129696625</v>
+      </c>
+      <c r="M18">
+        <v>16.80898150916564</v>
+      </c>
+      <c r="N18">
+        <v>7.371071121380866</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
@@ -943,25 +1327,49 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>13.14417609238171</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19">
-        <v>40.83748844030422</v>
+        <v>4.177149679222413</v>
       </c>
       <c r="E19">
-        <v>84.70618850595142</v>
+        <v>7.895560304042595</v>
       </c>
       <c r="F19">
-        <v>205.102975018343</v>
+        <v>27.62499046543797</v>
       </c>
       <c r="G19">
-        <v>1.329601762164938</v>
+        <v>35.89701799463509</v>
       </c>
       <c r="H19">
-        <v>20.92106324340801</v>
+        <v>3.948821119820311</v>
+      </c>
+      <c r="I19">
+        <v>4.366402984966398</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.84722475865843</v>
+      </c>
+      <c r="K19">
+        <v>18.74517875243171</v>
       </c>
       <c r="L19">
+        <v>6.61725408681531</v>
+      </c>
+      <c r="M19">
+        <v>16.60258488828675</v>
+      </c>
+      <c r="N19">
+        <v>7.883862138823535</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
@@ -972,25 +1380,49 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>13.63152462749514</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="D20">
-        <v>40.83748844030422</v>
+        <v>4.366161397661287</v>
       </c>
       <c r="E20">
-        <v>84.70618850595142</v>
+        <v>8.100124817385982</v>
       </c>
       <c r="F20">
-        <v>205.102975018343</v>
+        <v>30.3028124468218</v>
       </c>
       <c r="G20">
-        <v>1.329601762164938</v>
+        <v>40.03610465247444</v>
       </c>
       <c r="H20">
-        <v>20.92106324340801</v>
+        <v>2.780694052767927</v>
+      </c>
+      <c r="I20">
+        <v>4.249473699974581</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.62600558392211</v>
+      </c>
+      <c r="K20">
+        <v>20.04160231822793</v>
       </c>
       <c r="L20">
+        <v>6.625947921725424</v>
+      </c>
+      <c r="M20">
+        <v>16.70083538581039</v>
+      </c>
+      <c r="N20">
+        <v>8.783185918174185</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
@@ -1001,25 +1433,49 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>14.41625045304623</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
       <c r="D21">
-        <v>40.83748844030422</v>
+        <v>4.511861740664827</v>
       </c>
       <c r="E21">
-        <v>84.70618850595142</v>
+        <v>8.333650351845922</v>
       </c>
       <c r="F21">
-        <v>205.102975018343</v>
+        <v>31.2768821959818</v>
       </c>
       <c r="G21">
-        <v>1.329601762164938</v>
+        <v>41.65200665817873</v>
       </c>
       <c r="H21">
-        <v>20.92106324340801</v>
+        <v>2.470703091328442</v>
+      </c>
+      <c r="I21">
+        <v>4.051062010162598</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.83696466375729</v>
+      </c>
+      <c r="K21">
+        <v>20.19991994981736</v>
       </c>
       <c r="L21">
+        <v>6.741724699398988</v>
+      </c>
+      <c r="M21">
+        <v>17.65215946139034</v>
+      </c>
+      <c r="N21">
+        <v>9.250782966858203</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
@@ -1030,25 +1486,49 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>14.91246031451178</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
       <c r="D22">
-        <v>40.83748844030422</v>
+        <v>4.597931755201405</v>
       </c>
       <c r="E22">
-        <v>84.70618850595142</v>
+        <v>8.474630644164783</v>
       </c>
       <c r="F22">
-        <v>205.102975018343</v>
+        <v>31.84600760726554</v>
       </c>
       <c r="G22">
-        <v>1.329601762164938</v>
+        <v>42.60669942508132</v>
       </c>
       <c r="H22">
-        <v>20.92106324340801</v>
+        <v>2.28349102170372</v>
+      </c>
+      <c r="I22">
+        <v>3.917308925817488</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.9595731345539</v>
+      </c>
+      <c r="K22">
+        <v>20.28181904324702</v>
       </c>
       <c r="L22">
+        <v>6.814974157778578</v>
+      </c>
+      <c r="M22">
+        <v>18.24447229180432</v>
+      </c>
+      <c r="N22">
+        <v>9.49700585923779</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
@@ -1059,25 +1539,49 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>14.66595696005904</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="D23">
-        <v>40.83748844030422</v>
+        <v>4.551340921895446</v>
       </c>
       <c r="E23">
-        <v>84.70618850595142</v>
+        <v>8.403705912797395</v>
       </c>
       <c r="F23">
-        <v>205.102975018343</v>
+        <v>31.59134771801294</v>
       </c>
       <c r="G23">
-        <v>1.329601762164938</v>
+        <v>42.17691417212301</v>
       </c>
       <c r="H23">
-        <v>20.92106324340801</v>
+        <v>2.382063684962097</v>
+      </c>
+      <c r="I23">
+        <v>3.978873473462204</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.91032651081481</v>
+      </c>
+      <c r="K23">
+        <v>20.27908751884459</v>
       </c>
       <c r="L23">
+        <v>6.777566496931859</v>
+      </c>
+      <c r="M23">
+        <v>17.91609587675999</v>
+      </c>
+      <c r="N23">
+        <v>9.350417403235872</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
@@ -1088,25 +1592,49 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>13.66362237141091</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24">
-        <v>40.83748844030422</v>
+        <v>4.374156446027845</v>
       </c>
       <c r="E24">
-        <v>84.70618850595142</v>
+        <v>8.12520793239716</v>
       </c>
       <c r="F24">
-        <v>205.102975018343</v>
+        <v>30.54995462068803</v>
       </c>
       <c r="G24">
-        <v>1.329601762164938</v>
+        <v>40.41779855995937</v>
       </c>
       <c r="H24">
-        <v>20.92106324340801</v>
+        <v>2.763965179068362</v>
+      </c>
+      <c r="I24">
+        <v>4.232938207325404</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.70478214514756</v>
+      </c>
+      <c r="K24">
+        <v>20.20628404768661</v>
       </c>
       <c r="L24">
+        <v>6.631258788381015</v>
+      </c>
+      <c r="M24">
+        <v>16.64687631550094</v>
+      </c>
+      <c r="N24">
+        <v>8.807086007018913</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
@@ -1117,25 +1645,49 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>12.49181331728983</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25">
-        <v>40.83748844030422</v>
+        <v>4.17873230175609</v>
       </c>
       <c r="E25">
-        <v>84.70618850595142</v>
+        <v>7.81697429331193</v>
       </c>
       <c r="F25">
-        <v>205.102975018343</v>
+        <v>29.43521221223507</v>
       </c>
       <c r="G25">
-        <v>1.329601762164938</v>
+        <v>38.51894883073841</v>
       </c>
       <c r="H25">
-        <v>20.92106324340801</v>
+        <v>3.191732700497581</v>
+      </c>
+      <c r="I25">
+        <v>4.519224288675367</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>12.49940853503444</v>
+      </c>
+      <c r="K25">
+        <v>20.1378206900424</v>
       </c>
       <c r="L25">
+        <v>6.468411322696949</v>
+      </c>
+      <c r="M25">
+        <v>15.17297207563736</v>
+      </c>
+      <c r="N25">
+        <v>8.193804259118007</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">

--- a/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_0/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.60004607768349</v>
+        <v>10.99680841722416</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.029038851925393</v>
+        <v>3.990207704285789</v>
       </c>
       <c r="E2">
-        <v>7.593858823445776</v>
+        <v>7.240087790265852</v>
       </c>
       <c r="F2">
-        <v>28.75658804612303</v>
+        <v>27.38369363264597</v>
       </c>
       <c r="G2">
-        <v>37.34401896802474</v>
+        <v>34.97526746207589</v>
       </c>
       <c r="H2">
-        <v>3.518407956223737</v>
+        <v>3.279437378092314</v>
       </c>
       <c r="I2">
-        <v>4.718894462905652</v>
+        <v>4.341591823591249</v>
       </c>
       <c r="J2">
-        <v>12.40422439710133</v>
+        <v>12.0967119936044</v>
       </c>
       <c r="K2">
-        <v>20.1985859273043</v>
+        <v>18.55872603292194</v>
       </c>
       <c r="L2">
-        <v>6.348372346538615</v>
+        <v>14.12352538744399</v>
       </c>
       <c r="M2">
-        <v>13.95372459271778</v>
+        <v>13.30018320656468</v>
       </c>
       <c r="N2">
-        <v>7.675450248154014</v>
+        <v>6.132726628571237</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>14.2661570619084</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.274614871603481</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.9223063372752</v>
+        <v>10.34619253164207</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.926331539222574</v>
+        <v>3.890390319353044</v>
       </c>
       <c r="E3">
-        <v>7.430810088522295</v>
+        <v>7.091293623508143</v>
       </c>
       <c r="F3">
-        <v>28.231053985745</v>
+        <v>26.98526106646053</v>
       </c>
       <c r="G3">
-        <v>36.43323469234954</v>
+        <v>34.33781664321778</v>
       </c>
       <c r="H3">
-        <v>3.751094134853662</v>
+        <v>3.49544681192442</v>
       </c>
       <c r="I3">
-        <v>4.873374949343535</v>
+        <v>4.474037651795331</v>
       </c>
       <c r="J3">
-        <v>12.32354634972979</v>
+        <v>12.00675951152257</v>
       </c>
       <c r="K3">
-        <v>20.18517922591876</v>
+        <v>18.63624985599498</v>
       </c>
       <c r="L3">
-        <v>6.261087378132915</v>
+        <v>14.24927786259387</v>
       </c>
       <c r="M3">
-        <v>13.09328798943735</v>
+        <v>13.33222896721548</v>
       </c>
       <c r="N3">
-        <v>7.336730642872173</v>
+        <v>6.04710620842534</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>13.35899119557277</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.905532458266147</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.48227725043609</v>
+        <v>9.922157475806273</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.862158527448829</v>
+        <v>3.828089582931322</v>
       </c>
       <c r="E4">
-        <v>7.327659912816634</v>
+        <v>6.997365980397883</v>
       </c>
       <c r="F4">
-        <v>27.91051121924481</v>
+        <v>26.74318104631612</v>
       </c>
       <c r="G4">
-        <v>35.87452600712511</v>
+        <v>33.9548137679044</v>
       </c>
       <c r="H4">
-        <v>3.898950745949967</v>
+        <v>3.632756027720389</v>
       </c>
       <c r="I4">
-        <v>4.972083280395063</v>
+        <v>4.558943159049296</v>
       </c>
       <c r="J4">
-        <v>12.27705136062258</v>
+        <v>11.95187017913083</v>
       </c>
       <c r="K4">
-        <v>20.1771472167062</v>
+        <v>18.68350146245646</v>
       </c>
       <c r="L4">
-        <v>6.205658192500958</v>
+        <v>14.32547112989698</v>
       </c>
       <c r="M4">
-        <v>12.53762592316473</v>
+        <v>13.36356353885094</v>
       </c>
       <c r="N4">
-        <v>7.124212530664092</v>
+        <v>5.992974598060838</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.77255132291429</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.674250803447635</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.29135651986513</v>
+        <v>9.738032692571249</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.835955311439201</v>
+        <v>3.802669029679875</v>
       </c>
       <c r="E5">
-        <v>7.283511479444403</v>
+        <v>6.957454384854142</v>
       </c>
       <c r="F5">
-        <v>27.7661338304478</v>
+        <v>26.632523851684</v>
       </c>
       <c r="G5">
-        <v>35.62309581284123</v>
+        <v>33.77965110635969</v>
       </c>
       <c r="H5">
-        <v>3.960829471719295</v>
+        <v>3.690221967566744</v>
       </c>
       <c r="I5">
-        <v>5.015618087102076</v>
+        <v>4.597152928351327</v>
       </c>
       <c r="J5">
-        <v>12.25428153803471</v>
+        <v>11.92550399768237</v>
       </c>
       <c r="K5">
-        <v>20.16292080093239</v>
+        <v>18.69352842576753</v>
       </c>
       <c r="L5">
-        <v>6.182019359825334</v>
+        <v>14.34750851206626</v>
       </c>
       <c r="M5">
-        <v>12.30939715868098</v>
+        <v>13.37412384551665</v>
       </c>
       <c r="N5">
-        <v>7.041758951317366</v>
+        <v>5.970173847498069</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.5308001511699</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.583460261066826</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.25235273333509</v>
+        <v>9.700748471414181</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.831859320704794</v>
+        <v>3.798696020614897</v>
       </c>
       <c r="E6">
-        <v>7.274513116745663</v>
+        <v>6.949609919465717</v>
       </c>
       <c r="F6">
-        <v>27.72459810682221</v>
+        <v>26.59867495483052</v>
       </c>
       <c r="G6">
-        <v>35.55188998871391</v>
+        <v>33.72473352207874</v>
       </c>
       <c r="H6">
-        <v>3.971608728724719</v>
+        <v>3.700221274879281</v>
       </c>
       <c r="I6">
-        <v>5.025860459222018</v>
+        <v>4.606996580188191</v>
       </c>
       <c r="J6">
-        <v>12.24495095006112</v>
+        <v>11.9161347965265</v>
       </c>
       <c r="K6">
-        <v>20.14713008238578</v>
+        <v>18.68403885289695</v>
       </c>
       <c r="L6">
-        <v>6.177365174100494</v>
+        <v>14.3404769948719</v>
       </c>
       <c r="M6">
-        <v>12.27728542848182</v>
+        <v>13.3697826570806</v>
       </c>
       <c r="N6">
-        <v>7.034361912852892</v>
+        <v>5.965955903426923</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.4958441421256</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.573837220759015</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.46114815781934</v>
+        <v>9.90870689543101</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.862539366069758</v>
+        <v>3.833412155832798</v>
       </c>
       <c r="E7">
-        <v>7.32269842498356</v>
+        <v>6.994010429852857</v>
       </c>
       <c r="F7">
-        <v>27.8608373697046</v>
+        <v>26.67302415685183</v>
       </c>
       <c r="G7">
-        <v>35.79134519946955</v>
+        <v>33.93626493998966</v>
       </c>
       <c r="H7">
-        <v>3.900923767787236</v>
+        <v>3.635300047676627</v>
       </c>
       <c r="I7">
-        <v>4.980480199375025</v>
+        <v>4.568993297589279</v>
       </c>
       <c r="J7">
-        <v>12.26153004662989</v>
+        <v>11.8884023808646</v>
       </c>
       <c r="K7">
-        <v>20.14035556771006</v>
+        <v>18.64306864043049</v>
       </c>
       <c r="L7">
-        <v>6.203466688508535</v>
+        <v>14.28774793183072</v>
       </c>
       <c r="M7">
-        <v>12.55113641981449</v>
+        <v>13.34001742795805</v>
       </c>
       <c r="N7">
-        <v>7.140177029691992</v>
+        <v>5.991027410231887</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.7785129892892</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.684889279482081</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.3484595869433</v>
+        <v>10.77502860011169</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.99479234076211</v>
+        <v>3.97297155160113</v>
       </c>
       <c r="E8">
-        <v>7.532740273347007</v>
+        <v>7.186494979660221</v>
       </c>
       <c r="F8">
-        <v>28.51356994132808</v>
+        <v>27.10559570075641</v>
       </c>
       <c r="G8">
-        <v>36.92798531121617</v>
+        <v>34.8408724891891</v>
       </c>
       <c r="H8">
-        <v>3.599035202872106</v>
+        <v>3.356534139533492</v>
       </c>
       <c r="I8">
-        <v>4.781180116283132</v>
+        <v>4.399337211108959</v>
       </c>
       <c r="J8">
-        <v>12.35597597654602</v>
+        <v>11.88665346945468</v>
       </c>
       <c r="K8">
-        <v>20.14599195115622</v>
+        <v>18.51305406840322</v>
       </c>
       <c r="L8">
-        <v>6.316347117367719</v>
+        <v>14.1034689782515</v>
       </c>
       <c r="M8">
-        <v>13.68308443394293</v>
+        <v>13.26203129890646</v>
       </c>
       <c r="N8">
-        <v>7.581015820122448</v>
+        <v>6.100516091398325</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.95996870985418</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.157577514060614</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.92632137267225</v>
+        <v>12.28359047253907</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.243959104539869</v>
+        <v>4.218739366903168</v>
       </c>
       <c r="E9">
-        <v>7.928840686569376</v>
+        <v>7.548418738241963</v>
       </c>
       <c r="F9">
-        <v>29.88840086716846</v>
+        <v>28.14282940784384</v>
       </c>
       <c r="G9">
-        <v>39.28795035584262</v>
+        <v>36.59930523670237</v>
       </c>
       <c r="H9">
-        <v>3.043691736372826</v>
+        <v>2.841730168551937</v>
       </c>
       <c r="I9">
-        <v>4.407628812297133</v>
+        <v>4.078222094003965</v>
       </c>
       <c r="J9">
-        <v>12.5924762355392</v>
+        <v>12.08841119120705</v>
       </c>
       <c r="K9">
-        <v>20.22334233124177</v>
+        <v>18.34535034271753</v>
       </c>
       <c r="L9">
-        <v>6.52673764973294</v>
+        <v>13.81404884241166</v>
       </c>
       <c r="M9">
-        <v>15.65903809763224</v>
+        <v>13.25869521718684</v>
       </c>
       <c r="N9">
-        <v>8.377529923748469</v>
+        <v>6.306971763588106</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>16.04006102241039</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.029040517122478</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.93544128635199</v>
+        <v>13.27895058007205</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.40743014031167</v>
+        <v>4.404963526560529</v>
       </c>
       <c r="E10">
-        <v>8.177037228554857</v>
+        <v>7.786794229478418</v>
       </c>
       <c r="F10">
-        <v>30.64654296821098</v>
+        <v>28.55757944290619</v>
       </c>
       <c r="G10">
-        <v>40.61980186402349</v>
+        <v>37.8880607230139</v>
       </c>
       <c r="H10">
-        <v>2.685208272718566</v>
+        <v>2.514921143122929</v>
       </c>
       <c r="I10">
-        <v>4.160953172741843</v>
+        <v>3.871002679721565</v>
       </c>
       <c r="J10">
-        <v>12.70395461502037</v>
+        <v>11.90623527134497</v>
       </c>
       <c r="K10">
-        <v>20.13241934967185</v>
+        <v>18.05814598638568</v>
       </c>
       <c r="L10">
-        <v>6.6667895811297</v>
+        <v>13.4747478638957</v>
       </c>
       <c r="M10">
-        <v>17.00350468310489</v>
+        <v>13.18695407585308</v>
       </c>
       <c r="N10">
-        <v>8.870389434169015</v>
+        <v>6.450374141247377</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>17.41495902932334</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.549255650257702</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.14606461215547</v>
+        <v>13.61966066334455</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.361035911521105</v>
+        <v>4.399529346157509</v>
       </c>
       <c r="E11">
-        <v>8.147450033820364</v>
+        <v>7.82904555961827</v>
       </c>
       <c r="F11">
-        <v>28.92375711116597</v>
+        <v>26.75145121983024</v>
       </c>
       <c r="G11">
-        <v>38.08143550615616</v>
+        <v>36.29230648192705</v>
       </c>
       <c r="H11">
-        <v>3.409440904949786</v>
+        <v>3.287826055520191</v>
       </c>
       <c r="I11">
-        <v>4.11462702046332</v>
+        <v>3.840649136683284</v>
       </c>
       <c r="J11">
-        <v>12.12487658776782</v>
+        <v>10.90005606964782</v>
       </c>
       <c r="K11">
-        <v>18.94587856462298</v>
+        <v>17.03840392510359</v>
       </c>
       <c r="L11">
-        <v>6.738330104118696</v>
+        <v>12.68326122142683</v>
       </c>
       <c r="M11">
-        <v>17.76280201971583</v>
+        <v>12.45423945502535</v>
       </c>
       <c r="N11">
-        <v>8.496456261746722</v>
+        <v>6.574872693656074</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>18.06417802086255</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>9.076440568496565</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.13768966771747</v>
+        <v>13.70744218108092</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.290863551410935</v>
+        <v>4.338871149425215</v>
       </c>
       <c r="E12">
-        <v>8.217850234395803</v>
+        <v>7.936807595273051</v>
       </c>
       <c r="F12">
-        <v>27.36402972423624</v>
+        <v>25.27762848211747</v>
       </c>
       <c r="G12">
-        <v>35.73574340717551</v>
+        <v>34.55132278937121</v>
       </c>
       <c r="H12">
-        <v>4.607103282195449</v>
+        <v>4.518716833312201</v>
       </c>
       <c r="I12">
-        <v>4.109148102836711</v>
+        <v>3.837378872775595</v>
       </c>
       <c r="J12">
-        <v>11.63300197838989</v>
+        <v>10.30436743378402</v>
       </c>
       <c r="K12">
-        <v>18.07942888415969</v>
+        <v>16.37966118400135</v>
       </c>
       <c r="L12">
-        <v>6.851173703916668</v>
+        <v>12.2115908059394</v>
       </c>
       <c r="M12">
-        <v>18.11403538218828</v>
+        <v>11.93952132851362</v>
       </c>
       <c r="N12">
-        <v>8.048217956525267</v>
+        <v>6.719818757403245</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>18.33209443352712</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.55064405455791</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.93808972382403</v>
+        <v>13.57754199659908</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.197680319196997</v>
+        <v>4.225360312897441</v>
       </c>
       <c r="E13">
-        <v>8.355863388618145</v>
+        <v>8.10272538797456</v>
       </c>
       <c r="F13">
-        <v>25.75258652137214</v>
+        <v>23.95069344528128</v>
       </c>
       <c r="G13">
-        <v>33.24678623630108</v>
+        <v>32.33221589149966</v>
       </c>
       <c r="H13">
-        <v>5.937127385331585</v>
+        <v>5.864677597587629</v>
       </c>
       <c r="I13">
-        <v>4.147243023366405</v>
+        <v>3.868843967507961</v>
       </c>
       <c r="J13">
-        <v>11.15490028126468</v>
+        <v>10.02337509564905</v>
       </c>
       <c r="K13">
-        <v>17.36450137321985</v>
+        <v>15.92458783277859</v>
       </c>
       <c r="L13">
-        <v>6.99380406323209</v>
+        <v>11.90599027798725</v>
       </c>
       <c r="M13">
-        <v>18.2028564308573</v>
+        <v>11.55351775278006</v>
       </c>
       <c r="N13">
-        <v>7.526508544665464</v>
+        <v>6.883795622618423</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>18.36045386336074</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.965398635633044</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.70466757240004</v>
+        <v>13.38279170116007</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.122556598138989</v>
+        <v>4.126059767234202</v>
       </c>
       <c r="E14">
-        <v>8.497731257566032</v>
+        <v>8.263266005441647</v>
       </c>
       <c r="F14">
-        <v>24.5910543538792</v>
+        <v>23.07186463137822</v>
       </c>
       <c r="G14">
-        <v>31.41142546615128</v>
+        <v>30.5461362238717</v>
       </c>
       <c r="H14">
-        <v>6.906530790973677</v>
+        <v>6.839982114062486</v>
       </c>
       <c r="I14">
-        <v>4.195770088323461</v>
+        <v>3.90934148642555</v>
       </c>
       <c r="J14">
-        <v>10.82548627895172</v>
+        <v>9.944030055684108</v>
       </c>
       <c r="K14">
-        <v>16.94578872125492</v>
+        <v>15.69521230452838</v>
       </c>
       <c r="L14">
-        <v>7.114568901672855</v>
+        <v>11.7562705198711</v>
       </c>
       <c r="M14">
-        <v>18.15197171918363</v>
+        <v>11.34713823963966</v>
       </c>
       <c r="N14">
-        <v>7.126969716999959</v>
+        <v>7.013617246428949</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>18.2758026475346</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.526726112506337</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.6005515691947</v>
+        <v>13.28386704812928</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.098927122613945</v>
+        <v>4.092755776767247</v>
       </c>
       <c r="E15">
-        <v>8.529273031270721</v>
+        <v>8.301882898085278</v>
       </c>
       <c r="F15">
-        <v>24.28421919563491</v>
+        <v>22.87032374682454</v>
       </c>
       <c r="G15">
-        <v>30.91105954144763</v>
+        <v>30.00275564713504</v>
       </c>
       <c r="H15">
-        <v>7.136696040243951</v>
+        <v>7.070230266919239</v>
       </c>
       <c r="I15">
-        <v>4.220970897089085</v>
+        <v>3.931333091188426</v>
       </c>
       <c r="J15">
-        <v>10.74414837425197</v>
+        <v>9.970815298442881</v>
       </c>
       <c r="K15">
-        <v>16.86111360624448</v>
+        <v>15.66362525840882</v>
       </c>
       <c r="L15">
-        <v>7.141082344631319</v>
+        <v>11.73531478922148</v>
       </c>
       <c r="M15">
-        <v>18.08810987582088</v>
+        <v>11.31483078617668</v>
       </c>
       <c r="N15">
-        <v>7.019380970910301</v>
+        <v>7.041735293716024</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>18.20731385622612</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.411324047876815</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.20383299919575</v>
+        <v>12.84528911413673</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.045097439269652</v>
+        <v>4.006893947161307</v>
       </c>
       <c r="E16">
-        <v>8.389965551693956</v>
+        <v>8.187967055737264</v>
       </c>
       <c r="F16">
-        <v>24.22319732058784</v>
+        <v>23.0994406972718</v>
       </c>
       <c r="G16">
-        <v>30.70836846250629</v>
+        <v>29.34170600808686</v>
       </c>
       <c r="H16">
-        <v>6.975865968232919</v>
+        <v>6.8971012869673</v>
       </c>
       <c r="I16">
-        <v>4.323978477548753</v>
+        <v>4.01686610482292</v>
       </c>
       <c r="J16">
-        <v>10.78147360269562</v>
+        <v>10.40925766965763</v>
       </c>
       <c r="K16">
-        <v>17.03613994418871</v>
+        <v>15.90208081677135</v>
       </c>
       <c r="L16">
-        <v>7.048173161179842</v>
+        <v>11.89239171805119</v>
       </c>
       <c r="M16">
-        <v>17.53760239350849</v>
+        <v>11.49096863893121</v>
       </c>
       <c r="N16">
-        <v>6.899193777464858</v>
+        <v>6.949224976396049</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>17.69182259389165</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.310568572767465</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.02291234608597</v>
+        <v>12.61699577744058</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.044032475333492</v>
+        <v>3.995659380261878</v>
       </c>
       <c r="E17">
-        <v>8.193769118289355</v>
+        <v>7.992811624975342</v>
       </c>
       <c r="F17">
-        <v>24.79811754605044</v>
+        <v>23.71859447374998</v>
       </c>
       <c r="G17">
-        <v>31.54740246615811</v>
+        <v>29.87528681334571</v>
       </c>
       <c r="H17">
-        <v>6.314854223821653</v>
+        <v>6.221279472967846</v>
       </c>
       <c r="I17">
-        <v>4.37785297109833</v>
+        <v>4.062059631494916</v>
       </c>
       <c r="J17">
-        <v>10.984227855535</v>
+        <v>10.7553292680846</v>
       </c>
       <c r="K17">
-        <v>17.37878499077074</v>
+        <v>16.20257466639348</v>
       </c>
       <c r="L17">
-        <v>6.905775059085803</v>
+        <v>12.10649453145562</v>
       </c>
       <c r="M17">
-        <v>17.13444980499265</v>
+        <v>11.71960608554395</v>
       </c>
       <c r="N17">
-        <v>7.027238899373378</v>
+        <v>6.801751575454902</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>17.32770506830557</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.471139537296552</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.02486969137014</v>
+        <v>12.55122227590578</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.090669573973075</v>
+        <v>4.041094960701484</v>
       </c>
       <c r="E18">
-        <v>7.988000479746906</v>
+        <v>7.7631761963916</v>
       </c>
       <c r="F18">
-        <v>26.02625936289823</v>
+        <v>24.82922731933875</v>
       </c>
       <c r="G18">
-        <v>33.4348760956347</v>
+        <v>31.42370781110798</v>
       </c>
       <c r="H18">
-        <v>5.198275548083866</v>
+        <v>5.082081698439239</v>
       </c>
       <c r="I18">
-        <v>4.385063131882998</v>
+        <v>4.065440698757582</v>
       </c>
       <c r="J18">
-        <v>11.36633945351142</v>
+        <v>11.15058885540323</v>
       </c>
       <c r="K18">
-        <v>17.97284321794626</v>
+        <v>16.65636241511317</v>
       </c>
       <c r="L18">
-        <v>6.736773129696625</v>
+        <v>12.44851004141178</v>
       </c>
       <c r="M18">
-        <v>16.80898150916564</v>
+        <v>12.06164981791053</v>
       </c>
       <c r="N18">
-        <v>7.371071121380866</v>
+        <v>6.618257051653138</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>17.05955311093857</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.869902443626424</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.14417609238171</v>
+        <v>12.59157230404023</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.177149679222413</v>
+        <v>4.131263700489129</v>
       </c>
       <c r="E19">
-        <v>7.895560304042595</v>
+        <v>7.620053515869464</v>
       </c>
       <c r="F19">
-        <v>27.62499046543797</v>
+        <v>26.21425593835981</v>
       </c>
       <c r="G19">
-        <v>35.89701799463509</v>
+        <v>33.50874655464789</v>
       </c>
       <c r="H19">
-        <v>3.948821119820311</v>
+        <v>3.799359730787907</v>
       </c>
       <c r="I19">
-        <v>4.366402984966398</v>
+        <v>4.050553349517404</v>
       </c>
       <c r="J19">
-        <v>11.84722475865843</v>
+        <v>11.57326470985169</v>
       </c>
       <c r="K19">
-        <v>18.74517875243171</v>
+        <v>17.21576665550169</v>
       </c>
       <c r="L19">
-        <v>6.61725408681531</v>
+        <v>12.87925598931004</v>
       </c>
       <c r="M19">
-        <v>16.60258488828675</v>
+        <v>12.4811136112448</v>
       </c>
       <c r="N19">
-        <v>7.883862138823535</v>
+        <v>6.470125431727705</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>16.92090521172892</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.451094505017819</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.63152462749514</v>
+        <v>12.96767687223275</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.366161397661287</v>
+        <v>4.341517472832249</v>
       </c>
       <c r="E20">
-        <v>8.100124817385982</v>
+        <v>7.715928953714999</v>
       </c>
       <c r="F20">
-        <v>30.3028124468218</v>
+        <v>28.40793630415394</v>
       </c>
       <c r="G20">
-        <v>40.03610465247444</v>
+        <v>37.15910047053052</v>
       </c>
       <c r="H20">
-        <v>2.780694052767927</v>
+        <v>2.599564190476781</v>
       </c>
       <c r="I20">
-        <v>4.249473699974581</v>
+        <v>3.952502390939726</v>
       </c>
       <c r="J20">
-        <v>12.62600558392211</v>
+        <v>12.0784822433856</v>
       </c>
       <c r="K20">
-        <v>20.04160231822793</v>
+        <v>18.0768407083009</v>
       </c>
       <c r="L20">
-        <v>6.625947921725424</v>
+        <v>13.51956040797715</v>
       </c>
       <c r="M20">
-        <v>16.70083538581039</v>
+        <v>13.16010185077699</v>
       </c>
       <c r="N20">
-        <v>8.783185918174185</v>
+        <v>6.413406294716315</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>17.11692221499786</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.458289347441049</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.41625045304623</v>
+        <v>13.8072151704105</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.511861740664827</v>
+        <v>4.593445979204363</v>
       </c>
       <c r="E21">
-        <v>8.333650351845922</v>
+        <v>7.932227655830171</v>
       </c>
       <c r="F21">
-        <v>31.2768821959818</v>
+        <v>28.61429903895512</v>
       </c>
       <c r="G21">
-        <v>41.65200665817873</v>
+        <v>39.62216106152225</v>
       </c>
       <c r="H21">
-        <v>2.470703091328442</v>
+        <v>2.324546106237738</v>
       </c>
       <c r="I21">
-        <v>4.051062010162598</v>
+        <v>3.79101474179534</v>
       </c>
       <c r="J21">
-        <v>12.83696466375729</v>
+        <v>11.20216468455946</v>
       </c>
       <c r="K21">
-        <v>20.19991994981736</v>
+        <v>17.84467160532813</v>
       </c>
       <c r="L21">
-        <v>6.741724699398988</v>
+        <v>13.26058233250875</v>
       </c>
       <c r="M21">
-        <v>17.65215946139034</v>
+        <v>13.10397882970236</v>
       </c>
       <c r="N21">
-        <v>9.250782966858203</v>
+        <v>6.511648633446534</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>18.0207943130068</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.915617763402963</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.91246031451178</v>
+        <v>14.34592984194419</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.597931755201405</v>
+        <v>4.75746876315009</v>
       </c>
       <c r="E22">
-        <v>8.474630644164783</v>
+        <v>8.070158200406118</v>
       </c>
       <c r="F22">
-        <v>31.84600760726554</v>
+        <v>28.6647147834864</v>
       </c>
       <c r="G22">
-        <v>42.60669942508132</v>
+        <v>41.22992644378821</v>
       </c>
       <c r="H22">
-        <v>2.28349102170372</v>
+        <v>2.159812307712741</v>
       </c>
       <c r="I22">
-        <v>3.917308925817488</v>
+        <v>3.67880511517963</v>
       </c>
       <c r="J22">
-        <v>12.9595731345539</v>
+        <v>10.59343680019608</v>
       </c>
       <c r="K22">
-        <v>20.28181904324702</v>
+        <v>17.66627143893312</v>
       </c>
       <c r="L22">
-        <v>6.814974157778578</v>
+        <v>13.07634396855066</v>
       </c>
       <c r="M22">
-        <v>18.24447229180432</v>
+        <v>13.05232566113731</v>
       </c>
       <c r="N22">
-        <v>9.49700585923779</v>
+        <v>6.576471897346139</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>18.57469531395624</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.14891439363323</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.66595696005904</v>
+        <v>14.0637951656571</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.551340921895446</v>
+        <v>4.656440275155831</v>
       </c>
       <c r="E23">
-        <v>8.403705912797395</v>
+        <v>7.997896459600774</v>
       </c>
       <c r="F23">
-        <v>31.59134771801294</v>
+        <v>28.74289155985214</v>
       </c>
       <c r="G23">
-        <v>42.17691417212301</v>
+        <v>40.30819721694789</v>
       </c>
       <c r="H23">
-        <v>2.382063684962097</v>
+        <v>2.245291491075606</v>
       </c>
       <c r="I23">
-        <v>3.978873473462204</v>
+        <v>3.726309920488064</v>
       </c>
       <c r="J23">
-        <v>12.91032651081481</v>
+        <v>11.03611740943801</v>
       </c>
       <c r="K23">
-        <v>20.27908751884459</v>
+        <v>17.81745526359052</v>
       </c>
       <c r="L23">
-        <v>6.777566496931859</v>
+        <v>13.21372644088676</v>
       </c>
       <c r="M23">
-        <v>17.91609587675999</v>
+        <v>13.12453812913369</v>
       </c>
       <c r="N23">
-        <v>9.350417403235872</v>
+        <v>6.543513374317715</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>18.27933874509621</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.01764879246287</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.66362237141091</v>
+        <v>12.98855441230889</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.374156446027845</v>
+        <v>4.34944901759182</v>
       </c>
       <c r="E24">
-        <v>8.12520793239716</v>
+        <v>7.730406182635686</v>
       </c>
       <c r="F24">
-        <v>30.54995462068803</v>
+        <v>28.62645071976256</v>
       </c>
       <c r="G24">
-        <v>40.41779855995937</v>
+        <v>37.48033184584649</v>
       </c>
       <c r="H24">
-        <v>2.763965179068362</v>
+        <v>2.582878800057658</v>
       </c>
       <c r="I24">
-        <v>4.232938207325404</v>
+        <v>3.93330320232662</v>
       </c>
       <c r="J24">
-        <v>12.70478214514756</v>
+        <v>12.15327123669756</v>
       </c>
       <c r="K24">
-        <v>20.20628404768661</v>
+        <v>18.20349765800504</v>
       </c>
       <c r="L24">
-        <v>6.631258788381015</v>
+        <v>13.61740221392622</v>
       </c>
       <c r="M24">
-        <v>16.64687631550094</v>
+        <v>13.25456285435423</v>
       </c>
       <c r="N24">
-        <v>8.807086007018913</v>
+        <v>6.411517821548532</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>17.07215613903644</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.492800443447241</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.49181331728983</v>
+        <v>11.86371297013289</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.17873230175609</v>
+        <v>4.147687513701351</v>
       </c>
       <c r="E25">
-        <v>7.81697429331193</v>
+        <v>7.447255736725531</v>
       </c>
       <c r="F25">
-        <v>29.43521221223507</v>
+        <v>27.82551462327683</v>
       </c>
       <c r="G25">
-        <v>38.51894883073841</v>
+        <v>35.92609800203172</v>
       </c>
       <c r="H25">
-        <v>3.191732700497581</v>
+        <v>2.977894558696967</v>
       </c>
       <c r="I25">
-        <v>4.519224288675367</v>
+        <v>4.177694623398177</v>
       </c>
       <c r="J25">
-        <v>12.49940853503444</v>
+        <v>12.07853672025121</v>
       </c>
       <c r="K25">
-        <v>20.1378206900424</v>
+        <v>18.35322568239032</v>
       </c>
       <c r="L25">
-        <v>6.468411322696949</v>
+        <v>13.86257457413992</v>
       </c>
       <c r="M25">
-        <v>15.17297207563736</v>
+        <v>13.22275836131061</v>
       </c>
       <c r="N25">
-        <v>8.193804259118007</v>
+        <v>6.251825473900734</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.53238196096324</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.825870469546608</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
